--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6506,7 +6506,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-04 08:56:11.514448</t>
+    <t>2025-03-05 16:14:39.350229</t>
   </si>
   <si>
     <t>version</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6506,13 +6506,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-03-05 16:14:39.350229</t>
+    <t>2025-03-19 12:18:06.865098</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>2.1.3</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6107,25 +6107,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-04-17 10:01:18.509863</t>
+    <t>2025-06-27 02:17:30.217550</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.4</t>
+    <t>2.1.5</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.1.2</t>
+    <t>9.2.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.4.1</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6107,13 +6107,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-06-27 02:17:30.217550</t>
+    <t>2025-08-06 15:10:51.126653</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.5</t>
+    <t>2.1.6</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6107,13 +6107,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-08-06 15:10:51.126653</t>
+    <t>2025-09-18 15:21:07.301880</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.6</t>
+    <t>2.1.7</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6191,7 +6191,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:27:59.009938</t>
+    <t>2025-09-22 09:59:13.208454</t>
   </si>
   <si>
     <t>version</t>
@@ -35059,25 +35059,25 @@
   </mergeCells>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1000001">
-      <formula1>'Codelijsten'!$A$4:''$A$5</formula1>
+      <formula1>'Codelijsten'!$A$4:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1000001">
-      <formula1>'Codelijsten'!$C$4:''$C$16</formula1>
+      <formula1>'Codelijsten'!$C$4:$C$16</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1000001">
-      <formula1>'Codelijsten'!$E$4:''$E$17</formula1>
+      <formula1>'Codelijsten'!$E$4:$E$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I1000001">
-      <formula1>'Codelijsten'!$G$4:''$G$6</formula1>
+      <formula1>'Codelijsten'!$G$4:$G$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1000001">
-      <formula1>'Codelijsten'!$I$4:''$I$20</formula1>
+      <formula1>'Codelijsten'!$I$4:$I$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M1000001">
-      <formula1>'Codelijsten'!$K$4:''$K$6</formula1>
+      <formula1>'Codelijsten'!$K$4:$K$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:P1000001">
       <formula1>-146096</formula1>
@@ -35246,22 +35246,22 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1000001">
-      <formula1>'Codelijsten'!$M$4:''$M$10</formula1>
+      <formula1>'Codelijsten'!$M$4:$M$10</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>'Codelijsten'!$O$4:''$O$18</formula1>
+      <formula1>'Codelijsten'!$O$4:$O$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
-      <formula1>'Codelijsten'!$Q$4:''$Q$137</formula1>
+      <formula1>'Codelijsten'!$Q$4:$Q$137</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
-      <formula1>'Codelijsten'!$S$4:''$S$7</formula1>
+      <formula1>'Codelijsten'!$S$4:$S$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1000001">
-      <formula1>'Codelijsten'!$U$4:''$U$10</formula1>
+      <formula1>'Codelijsten'!$U$4:$U$10</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -35582,22 +35582,22 @@
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C1000001">
-      <formula1>'Codelijsten'!$W$4:''$W$10</formula1>
+      <formula1>'Codelijsten'!$W$4:$W$10</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H1000001">
-      <formula1>'Codelijsten'!$Y$4:''$Y$1003</formula1>
+      <formula1>'Codelijsten'!$Y$4:$Y$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1000001">
-      <formula1>'Codelijsten'!$AA$4:''$AA$5</formula1>
+      <formula1>'Codelijsten'!$AA$4:$AA$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L1000001">
-      <formula1>'Codelijsten'!$AC$4:''$AC$6</formula1>
+      <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1000001">
-      <formula1>'Codelijsten'!$AE$4:''$AE$68</formula1>
+      <formula1>'Codelijsten'!$AE$4:$AE$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O1000001">
       <formula1>-146096</formula1>
@@ -35609,7 +35609,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10:T1000001">
-      <formula1>'Codelijsten'!$AG$4:''$AG$8</formula1>
+      <formula1>'Codelijsten'!$AG$4:$AG$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -35891,10 +35891,10 @@
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001">
-      <formula1>'Codelijsten'!$AI$4:''$AI$29</formula1>
+      <formula1>'Codelijsten'!$AI$4:$AI$29</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1000001">
-      <formula1>'Codelijsten'!$AK$4:''$AK$18</formula1>
+      <formula1>'Codelijsten'!$AK$4:$AK$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1000001">
       <formula1>-146096</formula1>
@@ -35903,13 +35903,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L1000001">
-      <formula1>'Codelijsten'!$AM$4:''$AM$8</formula1>
+      <formula1>'Codelijsten'!$AM$4:$AM$8</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1000001">
-      <formula1>'Codelijsten'!$AO$4:''$AO$86</formula1>
+      <formula1>'Codelijsten'!$AO$4:$AO$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -36726,25 +36726,25 @@
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1000001">
-      <formula1>'Codelijsten'!$AQ$4:''$AQ$14</formula1>
+      <formula1>'Codelijsten'!$AQ$4:$AQ$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1000001">
-      <formula1>'Codelijsten'!$AS$4:''$AS$5</formula1>
+      <formula1>'Codelijsten'!$AS$4:$AS$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1000001">
-      <formula1>'Codelijsten'!$AU$4:''$AU$86</formula1>
+      <formula1>'Codelijsten'!$AU$4:$AU$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1000001">
-      <formula1>'Codelijsten'!$AW$4:''$AW$12</formula1>
+      <formula1>'Codelijsten'!$AW$4:$AW$12</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T1000001">
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:W1000001">
-      <formula1>'Codelijsten'!$AY$4:''$AY$40</formula1>
+      <formula1>'Codelijsten'!$AY$4:$AY$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X1000001">
-      <formula1>'Codelijsten'!$BA$4:''$BA$6</formula1>
+      <formula1>'Codelijsten'!$BA$4:$BA$6</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1000001">
       <formula1>-146096</formula1>
@@ -36762,7 +36762,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD7:BD1000001">
-      <formula1>'Codelijsten'!$BC$4:''$BC$86</formula1>
+      <formula1>'Codelijsten'!$BC$4:$BC$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -37748,22 +37748,22 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$BE$4:''$BE$1003</formula1>
+      <formula1>'Codelijsten'!$BE$4:$BE$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
-      <formula1>'Codelijsten'!$BG$4:''$BG$68</formula1>
+      <formula1>'Codelijsten'!$BG$4:$BG$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O1000001">
-      <formula1>'Codelijsten'!$BI$4:''$BI$68</formula1>
+      <formula1>'Codelijsten'!$BI$4:$BI$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8:AB1000001">
-      <formula1>'Codelijsten'!$BK$4:''$BK$68</formula1>
+      <formula1>'Codelijsten'!$BK$4:$BK$68</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8:AC1000001">
-      <formula1>'Codelijsten'!$BM$4:''$BM$6</formula1>
+      <formula1>'Codelijsten'!$BM$4:$BM$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1000001">
-      <formula1>'Codelijsten'!$BO$4:''$BO$181</formula1>
+      <formula1>'Codelijsten'!$BO$4:$BO$181</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE8:AE1000001">
       <formula1>-146096</formula1>
@@ -37772,13 +37772,13 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG8:AG1000001">
-      <formula1>'Codelijsten'!$BQ$4:''$BQ$6</formula1>
+      <formula1>'Codelijsten'!$BQ$4:$BQ$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY8:AY1000001">
-      <formula1>'Codelijsten'!$BS$4:''$BS$1003</formula1>
+      <formula1>'Codelijsten'!$BS$4:$BS$1003</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
-      <formula1>'Codelijsten'!$BU$4:''$BU$68</formula1>
+      <formula1>'Codelijsten'!$BU$4:$BU$68</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE8:BE1000001">
       <formula1>-146096</formula1>
@@ -37790,7 +37790,7 @@
       <formula1>-146096</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR8:BR1000001">
-      <formula1>'Codelijsten'!$BW$4:''$BW$86</formula1>
+      <formula1>'Codelijsten'!$BW$4:$BW$86</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6191,7 +6191,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 09:59:13.208454</t>
+    <t>2025-09-22 11:00:01.615769</t>
   </si>
   <si>
     <t>version</t>
@@ -6209,7 +6209,7 @@
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.5.1</t>
   </si>
   <si>
     <t>mode</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6191,13 +6191,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-22 11:00:01.615769</t>
+    <t>2025-09-24 17:44:31.586356</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6191,13 +6191,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 17:44:31.586356</t>
+    <t>2025-09-24 22:46:45.319316</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9229" uniqueCount="2067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9241" uniqueCount="2069">
   <si>
     <t>identificatie</t>
   </si>
@@ -3980,6 +3980,12 @@
     <t>DW</t>
   </si>
   <si>
+    <t>Dichlorpr-P</t>
+  </si>
+  <si>
+    <t>Dimethenamid-P</t>
+  </si>
+  <si>
     <t>resultaattijd</t>
   </si>
   <si>
@@ -6191,25 +6197,25 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-09-24 22:46:45.319316</t>
+    <t>2025-12-18 01:28:21.693099</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.2.1</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <t>xdov-version</t>
   </si>
   <si>
-    <t>9.2.2</t>
+    <t>9.4.0</t>
   </si>
   <si>
     <t>schema-version</t>
   </si>
   <si>
-    <t>5.5.1</t>
+    <t>5.7.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -6376,7 +6382,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="Y3:Z1003" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="Y3:Z1005" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -6546,7 +6552,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="BE3:BF1003" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="BE3:BF1005" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -6626,7 +6632,7 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="BS3:BT1003" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="BS3:BT1005" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Beschrijving"/>
@@ -7000,7 +7006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX1003"/>
+  <dimension ref="A1:BX1005"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7037,7 +7043,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -7061,7 +7067,7 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -7165,51 +7171,51 @@
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
@@ -7217,11 +7223,11 @@
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1" t="s">
@@ -7233,7 +7239,7 @@
       </c>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1" t="s">
@@ -7241,15 +7247,15 @@
       </c>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="BT2" s="1"/>
       <c r="BU2" s="1" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="BX2" s="1"/>
     </row>
@@ -7563,43 +7569,43 @@
         <v>32</v>
       </c>
       <c r="AA4" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="AB4" t="s">
         <v>32</v>
       </c>
       <c r="AC4" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="AD4" t="s">
         <v>32</v>
       </c>
       <c r="AE4" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="AF4" t="s">
         <v>32</v>
       </c>
       <c r="AG4" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="AH4" t="s">
         <v>32</v>
       </c>
       <c r="AI4" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="AJ4" t="s">
         <v>32</v>
       </c>
       <c r="AK4" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="AL4" t="s">
         <v>32</v>
       </c>
       <c r="AM4" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="AN4" t="s">
         <v>32</v>
@@ -7617,31 +7623,31 @@
         <v>32</v>
       </c>
       <c r="AS4" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AT4" t="s">
         <v>32</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AV4" t="s">
         <v>32</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="AX4" t="s">
         <v>32</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="AZ4" t="s">
         <v>32</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="BB4" t="s">
         <v>32</v>
@@ -7659,37 +7665,37 @@
         <v>32</v>
       </c>
       <c r="BG4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM4" t="s">
         <v>1329</v>
       </c>
-      <c r="BH4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>1327</v>
-      </c>
       <c r="BN4" t="s">
         <v>32</v>
       </c>
       <c r="BO4" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="BP4" t="s">
         <v>32</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="BR4" t="s">
         <v>32</v>
@@ -7701,7 +7707,7 @@
         <v>32</v>
       </c>
       <c r="BU4" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="BV4" t="s">
         <v>32</v>
@@ -7793,91 +7799,91 @@
         <v>32</v>
       </c>
       <c r="AA5" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="AB5" t="s">
         <v>32</v>
       </c>
       <c r="AC5" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="AD5" t="s">
         <v>32</v>
       </c>
       <c r="AE5" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="AF5" t="s">
         <v>32</v>
       </c>
       <c r="AG5" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="AH5" t="s">
         <v>32</v>
       </c>
       <c r="AI5" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="AJ5" t="s">
         <v>32</v>
       </c>
       <c r="AK5" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="AL5" t="s">
         <v>32</v>
       </c>
       <c r="AM5" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="AN5" t="s">
         <v>32</v>
       </c>
       <c r="AO5" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="AP5" t="s">
         <v>32</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="AR5" t="s">
         <v>32</v>
       </c>
       <c r="AS5" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="AT5" t="s">
         <v>32</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AV5" t="s">
         <v>32</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="AX5" t="s">
         <v>32</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="AZ5" t="s">
         <v>32</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="BB5" t="s">
         <v>32</v>
       </c>
       <c r="BC5" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="BD5" t="s">
         <v>32</v>
@@ -7889,37 +7895,37 @@
         <v>32</v>
       </c>
       <c r="BG5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM5" t="s">
         <v>1330</v>
       </c>
-      <c r="BH5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>1328</v>
-      </c>
       <c r="BN5" t="s">
         <v>32</v>
       </c>
       <c r="BO5" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="BP5" t="s">
         <v>32</v>
       </c>
       <c r="BQ5" s="2" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="BR5" t="s">
         <v>32</v>
@@ -7931,13 +7937,13 @@
         <v>32</v>
       </c>
       <c r="BU5" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="BV5" t="s">
         <v>32</v>
       </c>
       <c r="BW5" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="BX5" t="s">
         <v>32</v>
@@ -8017,79 +8023,79 @@
         <v>32</v>
       </c>
       <c r="AC6" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="AD6" t="s">
         <v>32</v>
       </c>
       <c r="AE6" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="AF6" t="s">
         <v>32</v>
       </c>
       <c r="AG6" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="AH6" t="s">
         <v>32</v>
       </c>
       <c r="AI6" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="AJ6" t="s">
         <v>32</v>
       </c>
       <c r="AK6" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="AL6" t="s">
         <v>32</v>
       </c>
       <c r="AM6" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="AN6" t="s">
         <v>32</v>
       </c>
       <c r="AO6" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="AP6" t="s">
         <v>32</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="AR6" t="s">
         <v>32</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AV6" t="s">
         <v>32</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="AX6" t="s">
         <v>32</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="AZ6" t="s">
         <v>32</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="BB6" t="s">
         <v>32</v>
       </c>
       <c r="BC6" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="BD6" t="s">
         <v>32</v>
@@ -8101,37 +8107,37 @@
         <v>32</v>
       </c>
       <c r="BG6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM6" t="s">
         <v>1331</v>
       </c>
-      <c r="BH6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>1331</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>1331</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>1329</v>
-      </c>
       <c r="BN6" t="s">
         <v>32</v>
       </c>
       <c r="BO6" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="BP6" t="s">
         <v>32</v>
       </c>
       <c r="BQ6" s="2" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="BR6" t="s">
         <v>32</v>
@@ -8143,13 +8149,13 @@
         <v>32</v>
       </c>
       <c r="BU6" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="BV6" t="s">
         <v>32</v>
       </c>
       <c r="BW6" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="BX6" t="s">
         <v>32</v>
@@ -8217,67 +8223,67 @@
         <v>32</v>
       </c>
       <c r="AE7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="AF7" t="s">
         <v>32</v>
       </c>
       <c r="AG7" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="AH7" t="s">
         <v>32</v>
       </c>
       <c r="AI7" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="AJ7" t="s">
         <v>32</v>
       </c>
       <c r="AK7" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="AL7" t="s">
         <v>32</v>
       </c>
       <c r="AM7" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="AN7" t="s">
         <v>32</v>
       </c>
       <c r="AO7" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="AP7" t="s">
         <v>32</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AR7" t="s">
         <v>32</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AV7" t="s">
         <v>32</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="AX7" t="s">
         <v>32</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="AZ7" t="s">
         <v>32</v>
       </c>
       <c r="BC7" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="BD7" t="s">
         <v>32</v>
@@ -8289,25 +8295,25 @@
         <v>32</v>
       </c>
       <c r="BG7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="BH7" t="s">
         <v>32</v>
       </c>
       <c r="BI7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="BJ7" t="s">
         <v>32</v>
       </c>
       <c r="BK7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="BL7" t="s">
         <v>32</v>
       </c>
       <c r="BO7" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="BP7" t="s">
         <v>32</v>
@@ -8319,13 +8325,13 @@
         <v>32</v>
       </c>
       <c r="BU7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="BV7" t="s">
         <v>32</v>
       </c>
       <c r="BW7" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="BX7" t="s">
         <v>32</v>
@@ -8387,67 +8393,67 @@
         <v>32</v>
       </c>
       <c r="AE8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="AF8" t="s">
         <v>32</v>
       </c>
       <c r="AG8" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="AH8" t="s">
         <v>32</v>
       </c>
       <c r="AI8" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="AJ8" t="s">
         <v>32</v>
       </c>
       <c r="AK8" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="AL8" t="s">
         <v>32</v>
       </c>
       <c r="AM8" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="AN8" t="s">
         <v>32</v>
       </c>
       <c r="AO8" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="AP8" t="s">
         <v>32</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="AR8" t="s">
         <v>32</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="AV8" t="s">
         <v>32</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="AX8" t="s">
         <v>32</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="AZ8" t="s">
         <v>32</v>
       </c>
       <c r="BC8" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="BD8" t="s">
         <v>32</v>
@@ -8459,25 +8465,25 @@
         <v>32</v>
       </c>
       <c r="BG8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="BH8" t="s">
         <v>32</v>
       </c>
       <c r="BI8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="BJ8" t="s">
         <v>32</v>
       </c>
       <c r="BK8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="BL8" t="s">
         <v>32</v>
       </c>
       <c r="BO8" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="BP8" t="s">
         <v>32</v>
@@ -8489,13 +8495,13 @@
         <v>32</v>
       </c>
       <c r="BU8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="BV8" t="s">
         <v>32</v>
       </c>
       <c r="BW8" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="BX8" t="s">
         <v>32</v>
@@ -8557,55 +8563,55 @@
         <v>32</v>
       </c>
       <c r="AE9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="AF9" t="s">
         <v>32</v>
       </c>
       <c r="AI9" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="AJ9" t="s">
         <v>32</v>
       </c>
       <c r="AK9" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="AL9" t="s">
         <v>32</v>
       </c>
       <c r="AO9" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="AP9" t="s">
         <v>32</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="AR9" t="s">
         <v>32</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="AV9" t="s">
         <v>32</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="AX9" t="s">
         <v>32</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="AZ9" t="s">
         <v>32</v>
       </c>
       <c r="BC9" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="BD9" t="s">
         <v>32</v>
@@ -8617,25 +8623,25 @@
         <v>32</v>
       </c>
       <c r="BG9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="BH9" t="s">
         <v>32</v>
       </c>
       <c r="BI9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="BJ9" t="s">
         <v>32</v>
       </c>
       <c r="BK9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="BL9" t="s">
         <v>32</v>
       </c>
       <c r="BO9" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="BP9" t="s">
         <v>32</v>
@@ -8647,13 +8653,13 @@
         <v>32</v>
       </c>
       <c r="BU9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="BV9" t="s">
         <v>32</v>
       </c>
       <c r="BW9" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="BX9" t="s">
         <v>32</v>
@@ -8715,55 +8721,55 @@
         <v>32</v>
       </c>
       <c r="AE10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="AF10" t="s">
         <v>32</v>
       </c>
       <c r="AI10" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="AJ10" t="s">
         <v>32</v>
       </c>
       <c r="AK10" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="AL10" t="s">
         <v>32</v>
       </c>
       <c r="AO10" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="AP10" t="s">
         <v>32</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AR10" t="s">
         <v>32</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AV10" t="s">
         <v>32</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="AX10" t="s">
         <v>32</v>
       </c>
       <c r="AY10" s="2" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="AZ10" t="s">
         <v>32</v>
       </c>
       <c r="BC10" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="BD10" t="s">
         <v>32</v>
@@ -8775,25 +8781,25 @@
         <v>32</v>
       </c>
       <c r="BG10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="BH10" t="s">
         <v>32</v>
       </c>
       <c r="BI10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="BJ10" t="s">
         <v>32</v>
       </c>
       <c r="BK10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="BL10" t="s">
         <v>32</v>
       </c>
       <c r="BO10" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="BP10" t="s">
         <v>32</v>
@@ -8805,13 +8811,13 @@
         <v>32</v>
       </c>
       <c r="BU10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="BV10" t="s">
         <v>32</v>
       </c>
       <c r="BW10" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="BX10" t="s">
         <v>32</v>
@@ -8855,55 +8861,55 @@
         <v>32</v>
       </c>
       <c r="AE11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="AF11" t="s">
         <v>32</v>
       </c>
       <c r="AI11" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="AJ11" t="s">
         <v>32</v>
       </c>
       <c r="AK11" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="AL11" t="s">
         <v>32</v>
       </c>
       <c r="AO11" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="AP11" t="s">
         <v>32</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AR11" t="s">
         <v>32</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AV11" t="s">
         <v>32</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="AX11" t="s">
         <v>32</v>
       </c>
       <c r="AY11" s="2" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="AZ11" t="s">
         <v>32</v>
       </c>
       <c r="BC11" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="BD11" t="s">
         <v>32</v>
@@ -8915,25 +8921,25 @@
         <v>32</v>
       </c>
       <c r="BG11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="BH11" t="s">
         <v>32</v>
       </c>
       <c r="BI11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="BJ11" t="s">
         <v>32</v>
       </c>
       <c r="BK11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="BL11" t="s">
         <v>32</v>
       </c>
       <c r="BO11" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="BP11" t="s">
         <v>32</v>
@@ -8945,13 +8951,13 @@
         <v>32</v>
       </c>
       <c r="BU11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="BV11" t="s">
         <v>32</v>
       </c>
       <c r="BW11" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="BX11" t="s">
         <v>32</v>
@@ -8995,55 +9001,55 @@
         <v>32</v>
       </c>
       <c r="AE12" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="AF12" t="s">
         <v>32</v>
       </c>
       <c r="AI12" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="AJ12" t="s">
         <v>32</v>
       </c>
       <c r="AK12" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="AL12" t="s">
         <v>32</v>
       </c>
       <c r="AO12" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="AP12" t="s">
         <v>32</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AR12" t="s">
         <v>32</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="AV12" t="s">
         <v>32</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="AX12" t="s">
         <v>32</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="AZ12" t="s">
         <v>32</v>
       </c>
       <c r="BC12" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="BD12" t="s">
         <v>32</v>
@@ -9055,25 +9061,25 @@
         <v>32</v>
       </c>
       <c r="BG12" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="BH12" t="s">
         <v>32</v>
       </c>
       <c r="BI12" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="BJ12" t="s">
         <v>32</v>
       </c>
       <c r="BK12" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="BL12" t="s">
         <v>32</v>
       </c>
       <c r="BO12" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="BP12" t="s">
         <v>32</v>
@@ -9085,13 +9091,13 @@
         <v>32</v>
       </c>
       <c r="BU12" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="BV12" t="s">
         <v>32</v>
       </c>
       <c r="BW12" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="BX12" t="s">
         <v>32</v>
@@ -9135,49 +9141,49 @@
         <v>32</v>
       </c>
       <c r="AE13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="AF13" t="s">
         <v>32</v>
       </c>
       <c r="AI13" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="AJ13" t="s">
         <v>32</v>
       </c>
       <c r="AK13" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="AL13" t="s">
         <v>32</v>
       </c>
       <c r="AO13" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="AP13" t="s">
         <v>32</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AR13" t="s">
         <v>32</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AV13" t="s">
         <v>32</v>
       </c>
       <c r="AY13" s="2" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="AZ13" t="s">
         <v>32</v>
       </c>
       <c r="BC13" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="BD13" t="s">
         <v>32</v>
@@ -9189,25 +9195,25 @@
         <v>32</v>
       </c>
       <c r="BG13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="BH13" t="s">
         <v>32</v>
       </c>
       <c r="BI13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="BJ13" t="s">
         <v>32</v>
       </c>
       <c r="BK13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="BL13" t="s">
         <v>32</v>
       </c>
       <c r="BO13" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="BP13" t="s">
         <v>32</v>
@@ -9219,13 +9225,13 @@
         <v>32</v>
       </c>
       <c r="BU13" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="BV13" t="s">
         <v>32</v>
       </c>
       <c r="BW13" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="BX13" t="s">
         <v>32</v>
@@ -9269,49 +9275,49 @@
         <v>32</v>
       </c>
       <c r="AE14" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="AF14" t="s">
         <v>32</v>
       </c>
       <c r="AI14" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="AJ14" t="s">
         <v>32</v>
       </c>
       <c r="AK14" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="AL14" t="s">
         <v>32</v>
       </c>
       <c r="AO14" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="AP14" t="s">
         <v>32</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AR14" t="s">
         <v>32</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AV14" t="s">
         <v>32</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="AZ14" t="s">
         <v>32</v>
       </c>
       <c r="BC14" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="BD14" t="s">
         <v>32</v>
@@ -9323,25 +9329,25 @@
         <v>32</v>
       </c>
       <c r="BG14" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="BH14" t="s">
         <v>32</v>
       </c>
       <c r="BI14" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="BJ14" t="s">
         <v>32</v>
       </c>
       <c r="BK14" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="BL14" t="s">
         <v>32</v>
       </c>
       <c r="BO14" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="BP14" t="s">
         <v>32</v>
@@ -9353,13 +9359,13 @@
         <v>32</v>
       </c>
       <c r="BU14" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="BV14" t="s">
         <v>32</v>
       </c>
       <c r="BW14" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="BX14" t="s">
         <v>32</v>
@@ -9403,43 +9409,43 @@
         <v>32</v>
       </c>
       <c r="AE15" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="AF15" t="s">
         <v>32</v>
       </c>
       <c r="AI15" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="AJ15" t="s">
         <v>32</v>
       </c>
       <c r="AK15" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="AL15" t="s">
         <v>32</v>
       </c>
       <c r="AO15" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="AP15" t="s">
         <v>32</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AV15" t="s">
         <v>32</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="AZ15" t="s">
         <v>32</v>
       </c>
       <c r="BC15" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="BD15" t="s">
         <v>32</v>
@@ -9451,25 +9457,25 @@
         <v>32</v>
       </c>
       <c r="BG15" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="BH15" t="s">
         <v>32</v>
       </c>
       <c r="BI15" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="BJ15" t="s">
         <v>32</v>
       </c>
       <c r="BK15" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="BL15" t="s">
         <v>32</v>
       </c>
       <c r="BO15" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="BP15" t="s">
         <v>32</v>
@@ -9481,13 +9487,13 @@
         <v>32</v>
       </c>
       <c r="BU15" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="BV15" t="s">
         <v>32</v>
       </c>
       <c r="BW15" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="BX15" t="s">
         <v>32</v>
@@ -9531,43 +9537,43 @@
         <v>32</v>
       </c>
       <c r="AE16" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="AF16" t="s">
         <v>32</v>
       </c>
       <c r="AI16" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="AJ16" t="s">
         <v>32</v>
       </c>
       <c r="AK16" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="AL16" t="s">
         <v>32</v>
       </c>
       <c r="AO16" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="AP16" t="s">
         <v>32</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="AV16" t="s">
         <v>32</v>
       </c>
       <c r="AY16" s="2" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="AZ16" t="s">
         <v>32</v>
       </c>
       <c r="BC16" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="BD16" t="s">
         <v>32</v>
@@ -9579,25 +9585,25 @@
         <v>32</v>
       </c>
       <c r="BG16" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="BH16" t="s">
         <v>32</v>
       </c>
       <c r="BI16" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="BJ16" t="s">
         <v>32</v>
       </c>
       <c r="BK16" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="BL16" t="s">
         <v>32</v>
       </c>
       <c r="BO16" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="BP16" t="s">
         <v>32</v>
@@ -9609,13 +9615,13 @@
         <v>32</v>
       </c>
       <c r="BU16" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="BV16" t="s">
         <v>32</v>
       </c>
       <c r="BW16" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="BX16" t="s">
         <v>32</v>
@@ -9653,43 +9659,43 @@
         <v>32</v>
       </c>
       <c r="AE17" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="AF17" t="s">
         <v>32</v>
       </c>
       <c r="AI17" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="AJ17" t="s">
         <v>32</v>
       </c>
       <c r="AK17" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="AL17" t="s">
         <v>32</v>
       </c>
       <c r="AO17" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="AP17" t="s">
         <v>32</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="AV17" t="s">
         <v>32</v>
       </c>
       <c r="AY17" s="2" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="AZ17" t="s">
         <v>32</v>
       </c>
       <c r="BC17" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="BD17" t="s">
         <v>32</v>
@@ -9701,25 +9707,25 @@
         <v>32</v>
       </c>
       <c r="BG17" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="BH17" t="s">
         <v>32</v>
       </c>
       <c r="BI17" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="BJ17" t="s">
         <v>32</v>
       </c>
       <c r="BK17" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="BL17" t="s">
         <v>32</v>
       </c>
       <c r="BO17" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="BP17" t="s">
         <v>32</v>
@@ -9731,13 +9737,13 @@
         <v>32</v>
       </c>
       <c r="BU17" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="BV17" t="s">
         <v>32</v>
       </c>
       <c r="BW17" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="BX17" t="s">
         <v>32</v>
@@ -9769,43 +9775,43 @@
         <v>32</v>
       </c>
       <c r="AE18" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="AF18" t="s">
         <v>32</v>
       </c>
       <c r="AI18" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="AJ18" t="s">
         <v>32</v>
       </c>
       <c r="AK18" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="AL18" t="s">
         <v>32</v>
       </c>
       <c r="AO18" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="AP18" t="s">
         <v>32</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="AV18" t="s">
         <v>32</v>
       </c>
       <c r="AY18" s="2" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="AZ18" t="s">
         <v>32</v>
       </c>
       <c r="BC18" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="BD18" t="s">
         <v>32</v>
@@ -9817,25 +9823,25 @@
         <v>32</v>
       </c>
       <c r="BG18" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="BH18" t="s">
         <v>32</v>
       </c>
       <c r="BI18" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="BJ18" t="s">
         <v>32</v>
       </c>
       <c r="BK18" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="BL18" t="s">
         <v>32</v>
       </c>
       <c r="BO18" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="BP18" t="s">
         <v>32</v>
@@ -9847,13 +9853,13 @@
         <v>32</v>
       </c>
       <c r="BU18" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="BV18" t="s">
         <v>32</v>
       </c>
       <c r="BW18" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="BX18" t="s">
         <v>32</v>
@@ -9879,37 +9885,37 @@
         <v>32</v>
       </c>
       <c r="AE19" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="AF19" t="s">
         <v>32</v>
       </c>
       <c r="AI19" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="AJ19" t="s">
         <v>32</v>
       </c>
       <c r="AO19" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="AP19" t="s">
         <v>32</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="AV19" t="s">
         <v>32</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="AZ19" t="s">
         <v>32</v>
       </c>
       <c r="BC19" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="BD19" t="s">
         <v>32</v>
@@ -9921,19 +9927,19 @@
         <v>32</v>
       </c>
       <c r="BG19" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="BH19" t="s">
         <v>32</v>
       </c>
       <c r="BI19" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="BJ19" t="s">
         <v>32</v>
       </c>
       <c r="BK19" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="BL19" t="s">
         <v>32</v>
@@ -9951,13 +9957,13 @@
         <v>32</v>
       </c>
       <c r="BU19" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="BV19" t="s">
         <v>32</v>
       </c>
       <c r="BW19" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="BX19" t="s">
         <v>32</v>
@@ -9983,37 +9989,37 @@
         <v>32</v>
       </c>
       <c r="AE20" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="AF20" t="s">
         <v>32</v>
       </c>
       <c r="AI20" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="AJ20" t="s">
         <v>32</v>
       </c>
       <c r="AO20" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="AP20" t="s">
         <v>32</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AV20" t="s">
         <v>32</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="AZ20" t="s">
         <v>32</v>
       </c>
       <c r="BC20" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="BD20" t="s">
         <v>32</v>
@@ -10025,25 +10031,25 @@
         <v>32</v>
       </c>
       <c r="BG20" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="BH20" t="s">
         <v>32</v>
       </c>
       <c r="BI20" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="BJ20" t="s">
         <v>32</v>
       </c>
       <c r="BK20" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="BL20" t="s">
         <v>32</v>
       </c>
       <c r="BO20" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="BP20" t="s">
         <v>32</v>
@@ -10055,13 +10061,13 @@
         <v>32</v>
       </c>
       <c r="BU20" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="BV20" t="s">
         <v>32</v>
       </c>
       <c r="BW20" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="BX20" t="s">
         <v>32</v>
@@ -10081,37 +10087,37 @@
         <v>32</v>
       </c>
       <c r="AE21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="AF21" t="s">
         <v>32</v>
       </c>
       <c r="AI21" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="AJ21" t="s">
         <v>32</v>
       </c>
       <c r="AO21" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="AP21" t="s">
         <v>32</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="AV21" t="s">
         <v>32</v>
       </c>
       <c r="AY21" s="2" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="AZ21" t="s">
         <v>32</v>
       </c>
       <c r="BC21" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="BD21" t="s">
         <v>32</v>
@@ -10123,25 +10129,25 @@
         <v>32</v>
       </c>
       <c r="BG21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="BH21" t="s">
         <v>32</v>
       </c>
       <c r="BI21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="BJ21" t="s">
         <v>32</v>
       </c>
       <c r="BK21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="BL21" t="s">
         <v>32</v>
       </c>
       <c r="BO21" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="BP21" t="s">
         <v>32</v>
@@ -10153,13 +10159,13 @@
         <v>32</v>
       </c>
       <c r="BU21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="BV21" t="s">
         <v>32</v>
       </c>
       <c r="BW21" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="BX21" t="s">
         <v>32</v>
@@ -10179,37 +10185,37 @@
         <v>32</v>
       </c>
       <c r="AE22" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="AF22" t="s">
         <v>32</v>
       </c>
       <c r="AI22" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="AJ22" t="s">
         <v>32</v>
       </c>
       <c r="AO22" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="AP22" t="s">
         <v>32</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="AV22" t="s">
         <v>32</v>
       </c>
       <c r="AY22" s="2" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="AZ22" t="s">
         <v>32</v>
       </c>
       <c r="BC22" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="BD22" t="s">
         <v>32</v>
@@ -10221,25 +10227,25 @@
         <v>32</v>
       </c>
       <c r="BG22" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="BH22" t="s">
         <v>32</v>
       </c>
       <c r="BI22" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="BJ22" t="s">
         <v>32</v>
       </c>
       <c r="BK22" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="BL22" t="s">
         <v>32</v>
       </c>
       <c r="BO22" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="BP22" t="s">
         <v>32</v>
@@ -10251,13 +10257,13 @@
         <v>32</v>
       </c>
       <c r="BU22" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="BV22" t="s">
         <v>32</v>
       </c>
       <c r="BW22" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="BX22" t="s">
         <v>32</v>
@@ -10277,37 +10283,37 @@
         <v>32</v>
       </c>
       <c r="AE23" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="AF23" t="s">
         <v>32</v>
       </c>
       <c r="AI23" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="AJ23" t="s">
         <v>32</v>
       </c>
       <c r="AO23" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="AP23" t="s">
         <v>32</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AV23" t="s">
         <v>32</v>
       </c>
       <c r="AY23" s="2" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="AZ23" t="s">
         <v>32</v>
       </c>
       <c r="BC23" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="BD23" t="s">
         <v>32</v>
@@ -10319,25 +10325,25 @@
         <v>32</v>
       </c>
       <c r="BG23" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="BH23" t="s">
         <v>32</v>
       </c>
       <c r="BI23" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="BJ23" t="s">
         <v>32</v>
       </c>
       <c r="BK23" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="BL23" t="s">
         <v>32</v>
       </c>
       <c r="BO23" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="BP23" t="s">
         <v>32</v>
@@ -10349,13 +10355,13 @@
         <v>32</v>
       </c>
       <c r="BU23" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="BV23" t="s">
         <v>32</v>
       </c>
       <c r="BW23" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="BX23" t="s">
         <v>32</v>
@@ -10381,31 +10387,31 @@
         <v>32</v>
       </c>
       <c r="AI24" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="AJ24" t="s">
         <v>32</v>
       </c>
       <c r="AO24" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="AP24" t="s">
         <v>32</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AV24" t="s">
         <v>32</v>
       </c>
       <c r="AY24" s="2" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="AZ24" t="s">
         <v>32</v>
       </c>
       <c r="BC24" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="BD24" t="s">
         <v>32</v>
@@ -10435,7 +10441,7 @@
         <v>32</v>
       </c>
       <c r="BO24" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="BP24" t="s">
         <v>32</v>
@@ -10453,7 +10459,7 @@
         <v>32</v>
       </c>
       <c r="BW24" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="BX24" t="s">
         <v>32</v>
@@ -10473,37 +10479,37 @@
         <v>32</v>
       </c>
       <c r="AE25" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="AF25" t="s">
         <v>32</v>
       </c>
       <c r="AI25" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="AJ25" t="s">
         <v>32</v>
       </c>
       <c r="AO25" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="AP25" t="s">
         <v>32</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AV25" t="s">
         <v>32</v>
       </c>
       <c r="AY25" s="2" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="AZ25" t="s">
         <v>32</v>
       </c>
       <c r="BC25" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="BD25" t="s">
         <v>32</v>
@@ -10515,25 +10521,25 @@
         <v>32</v>
       </c>
       <c r="BG25" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="BH25" t="s">
         <v>32</v>
       </c>
       <c r="BI25" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="BJ25" t="s">
         <v>32</v>
       </c>
       <c r="BK25" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="BL25" t="s">
         <v>32</v>
       </c>
       <c r="BO25" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="BP25" t="s">
         <v>32</v>
@@ -10545,13 +10551,13 @@
         <v>32</v>
       </c>
       <c r="BU25" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="BV25" t="s">
         <v>32</v>
       </c>
       <c r="BW25" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="BX25" t="s">
         <v>32</v>
@@ -10571,37 +10577,37 @@
         <v>32</v>
       </c>
       <c r="AE26" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="AF26" t="s">
         <v>32</v>
       </c>
       <c r="AI26" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="AJ26" t="s">
         <v>32</v>
       </c>
       <c r="AO26" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="AP26" t="s">
         <v>32</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="AV26" t="s">
         <v>32</v>
       </c>
       <c r="AY26" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="AZ26" t="s">
         <v>32</v>
       </c>
       <c r="BC26" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="BD26" t="s">
         <v>32</v>
@@ -10613,25 +10619,25 @@
         <v>32</v>
       </c>
       <c r="BG26" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="BH26" t="s">
         <v>32</v>
       </c>
       <c r="BI26" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="BJ26" t="s">
         <v>32</v>
       </c>
       <c r="BK26" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="BL26" t="s">
         <v>32</v>
       </c>
       <c r="BO26" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="BP26" t="s">
         <v>32</v>
@@ -10643,13 +10649,13 @@
         <v>32</v>
       </c>
       <c r="BU26" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="BV26" t="s">
         <v>32</v>
       </c>
       <c r="BW26" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="BX26" t="s">
         <v>32</v>
@@ -10669,37 +10675,37 @@
         <v>32</v>
       </c>
       <c r="AE27" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="AF27" t="s">
         <v>32</v>
       </c>
       <c r="AI27" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="AJ27" t="s">
         <v>32</v>
       </c>
       <c r="AO27" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="AP27" t="s">
         <v>32</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="AV27" t="s">
         <v>32</v>
       </c>
       <c r="AY27" s="2" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="AZ27" t="s">
         <v>32</v>
       </c>
       <c r="BC27" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="BD27" t="s">
         <v>32</v>
@@ -10711,25 +10717,25 @@
         <v>32</v>
       </c>
       <c r="BG27" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="BH27" t="s">
         <v>32</v>
       </c>
       <c r="BI27" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="BJ27" t="s">
         <v>32</v>
       </c>
       <c r="BK27" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="BL27" t="s">
         <v>32</v>
       </c>
       <c r="BO27" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="BP27" t="s">
         <v>32</v>
@@ -10741,13 +10747,13 @@
         <v>32</v>
       </c>
       <c r="BU27" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="BV27" t="s">
         <v>32</v>
       </c>
       <c r="BW27" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="BX27" t="s">
         <v>32</v>
@@ -10767,37 +10773,37 @@
         <v>32</v>
       </c>
       <c r="AE28" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="AF28" t="s">
         <v>32</v>
       </c>
       <c r="AI28" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="AJ28" t="s">
         <v>32</v>
       </c>
       <c r="AO28" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="AP28" t="s">
         <v>32</v>
       </c>
       <c r="AU28" s="2" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AV28" t="s">
         <v>32</v>
       </c>
       <c r="AY28" s="2" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="AZ28" t="s">
         <v>32</v>
       </c>
       <c r="BC28" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="BD28" t="s">
         <v>32</v>
@@ -10809,25 +10815,25 @@
         <v>32</v>
       </c>
       <c r="BG28" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="BH28" t="s">
         <v>32</v>
       </c>
       <c r="BI28" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="BJ28" t="s">
         <v>32</v>
       </c>
       <c r="BK28" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="BL28" t="s">
         <v>32</v>
       </c>
       <c r="BO28" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="BP28" t="s">
         <v>32</v>
@@ -10839,13 +10845,13 @@
         <v>32</v>
       </c>
       <c r="BU28" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="BV28" t="s">
         <v>32</v>
       </c>
       <c r="BW28" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="BX28" t="s">
         <v>32</v>
@@ -10865,37 +10871,37 @@
         <v>32</v>
       </c>
       <c r="AE29" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="AF29" t="s">
         <v>32</v>
       </c>
       <c r="AI29" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="AJ29" t="s">
         <v>32</v>
       </c>
       <c r="AO29" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AP29" t="s">
         <v>32</v>
       </c>
       <c r="AU29" s="2" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AV29" t="s">
         <v>32</v>
       </c>
       <c r="AY29" s="2" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="AZ29" t="s">
         <v>32</v>
       </c>
       <c r="BC29" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="BD29" t="s">
         <v>32</v>
@@ -10907,25 +10913,25 @@
         <v>32</v>
       </c>
       <c r="BG29" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="BH29" t="s">
         <v>32</v>
       </c>
       <c r="BI29" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="BJ29" t="s">
         <v>32</v>
       </c>
       <c r="BK29" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="BL29" t="s">
         <v>32</v>
       </c>
       <c r="BO29" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="BP29" t="s">
         <v>32</v>
@@ -10937,13 +10943,13 @@
         <v>32</v>
       </c>
       <c r="BU29" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="BV29" t="s">
         <v>32</v>
       </c>
       <c r="BW29" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="BX29" t="s">
         <v>32</v>
@@ -10963,31 +10969,31 @@
         <v>32</v>
       </c>
       <c r="AE30" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="AF30" t="s">
         <v>32</v>
       </c>
       <c r="AO30" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AP30" t="s">
         <v>32</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AV30" t="s">
         <v>32</v>
       </c>
       <c r="AY30" s="2" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="AZ30" t="s">
         <v>32</v>
       </c>
       <c r="BC30" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="BD30" t="s">
         <v>32</v>
@@ -10999,25 +11005,25 @@
         <v>32</v>
       </c>
       <c r="BG30" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="BH30" t="s">
         <v>32</v>
       </c>
       <c r="BI30" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="BJ30" t="s">
         <v>32</v>
       </c>
       <c r="BK30" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="BL30" t="s">
         <v>32</v>
       </c>
       <c r="BO30" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="BP30" t="s">
         <v>32</v>
@@ -11029,13 +11035,13 @@
         <v>32</v>
       </c>
       <c r="BU30" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="BV30" t="s">
         <v>32</v>
       </c>
       <c r="BW30" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="BX30" t="s">
         <v>32</v>
@@ -11055,31 +11061,31 @@
         <v>32</v>
       </c>
       <c r="AE31" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="AF31" t="s">
         <v>32</v>
       </c>
       <c r="AO31" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AP31" t="s">
         <v>32</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="AV31" t="s">
         <v>32</v>
       </c>
       <c r="AY31" s="2" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="AZ31" t="s">
         <v>32</v>
       </c>
       <c r="BC31" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="BD31" t="s">
         <v>32</v>
@@ -11091,25 +11097,25 @@
         <v>32</v>
       </c>
       <c r="BG31" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="BH31" t="s">
         <v>32</v>
       </c>
       <c r="BI31" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="BJ31" t="s">
         <v>32</v>
       </c>
       <c r="BK31" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="BL31" t="s">
         <v>32</v>
       </c>
       <c r="BO31" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="BP31" t="s">
         <v>32</v>
@@ -11121,13 +11127,13 @@
         <v>32</v>
       </c>
       <c r="BU31" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="BV31" t="s">
         <v>32</v>
       </c>
       <c r="BW31" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="BX31" t="s">
         <v>32</v>
@@ -11147,31 +11153,31 @@
         <v>32</v>
       </c>
       <c r="AE32" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="AF32" t="s">
         <v>32</v>
       </c>
       <c r="AO32" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="AP32" t="s">
         <v>32</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="AV32" t="s">
         <v>32</v>
       </c>
       <c r="AY32" s="2" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="AZ32" t="s">
         <v>32</v>
       </c>
       <c r="BC32" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="BD32" t="s">
         <v>32</v>
@@ -11183,25 +11189,25 @@
         <v>32</v>
       </c>
       <c r="BG32" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="BH32" t="s">
         <v>32</v>
       </c>
       <c r="BI32" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="BJ32" t="s">
         <v>32</v>
       </c>
       <c r="BK32" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="BL32" t="s">
         <v>32</v>
       </c>
       <c r="BO32" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="BP32" t="s">
         <v>32</v>
@@ -11213,13 +11219,13 @@
         <v>32</v>
       </c>
       <c r="BU32" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="BV32" t="s">
         <v>32</v>
       </c>
       <c r="BW32" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="BX32" t="s">
         <v>32</v>
@@ -11239,31 +11245,31 @@
         <v>32</v>
       </c>
       <c r="AE33" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="AF33" t="s">
         <v>32</v>
       </c>
       <c r="AO33" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="AP33" t="s">
         <v>32</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AV33" t="s">
         <v>32</v>
       </c>
       <c r="AY33" s="2" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="AZ33" t="s">
         <v>32</v>
       </c>
       <c r="BC33" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="BD33" t="s">
         <v>32</v>
@@ -11275,25 +11281,25 @@
         <v>32</v>
       </c>
       <c r="BG33" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="BH33" t="s">
         <v>32</v>
       </c>
       <c r="BI33" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="BJ33" t="s">
         <v>32</v>
       </c>
       <c r="BK33" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="BL33" t="s">
         <v>32</v>
       </c>
       <c r="BO33" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="BP33" t="s">
         <v>32</v>
@@ -11305,13 +11311,13 @@
         <v>32</v>
       </c>
       <c r="BU33" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="BV33" t="s">
         <v>32</v>
       </c>
       <c r="BW33" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="BX33" t="s">
         <v>32</v>
@@ -11331,31 +11337,31 @@
         <v>32</v>
       </c>
       <c r="AE34" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="AF34" t="s">
         <v>32</v>
       </c>
       <c r="AO34" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="AP34" t="s">
         <v>32</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="AV34" t="s">
         <v>32</v>
       </c>
       <c r="AY34" s="2" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="AZ34" t="s">
         <v>32</v>
       </c>
       <c r="BC34" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="BD34" t="s">
         <v>32</v>
@@ -11367,25 +11373,25 @@
         <v>32</v>
       </c>
       <c r="BG34" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="BH34" t="s">
         <v>32</v>
       </c>
       <c r="BI34" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="BJ34" t="s">
         <v>32</v>
       </c>
       <c r="BK34" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="BL34" t="s">
         <v>32</v>
       </c>
       <c r="BO34" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="BP34" t="s">
         <v>32</v>
@@ -11397,13 +11403,13 @@
         <v>32</v>
       </c>
       <c r="BU34" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="BV34" t="s">
         <v>32</v>
       </c>
       <c r="BW34" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="BX34" t="s">
         <v>32</v>
@@ -11423,31 +11429,31 @@
         <v>32</v>
       </c>
       <c r="AE35" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="AF35" t="s">
         <v>32</v>
       </c>
       <c r="AO35" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AP35" t="s">
         <v>32</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="AV35" t="s">
         <v>32</v>
       </c>
       <c r="AY35" s="2" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="AZ35" t="s">
         <v>32</v>
       </c>
       <c r="BC35" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="BD35" t="s">
         <v>32</v>
@@ -11459,25 +11465,25 @@
         <v>32</v>
       </c>
       <c r="BG35" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="BH35" t="s">
         <v>32</v>
       </c>
       <c r="BI35" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="BJ35" t="s">
         <v>32</v>
       </c>
       <c r="BK35" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="BL35" t="s">
         <v>32</v>
       </c>
       <c r="BO35" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="BP35" t="s">
         <v>32</v>
@@ -11489,13 +11495,13 @@
         <v>32</v>
       </c>
       <c r="BU35" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="BV35" t="s">
         <v>32</v>
       </c>
       <c r="BW35" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="BX35" t="s">
         <v>32</v>
@@ -11515,31 +11521,31 @@
         <v>32</v>
       </c>
       <c r="AE36" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="AF36" t="s">
         <v>32</v>
       </c>
       <c r="AO36" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="AP36" t="s">
         <v>32</v>
       </c>
       <c r="AU36" s="2" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="AV36" t="s">
         <v>32</v>
       </c>
       <c r="AY36" s="2" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="AZ36" t="s">
         <v>32</v>
       </c>
       <c r="BC36" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="BD36" t="s">
         <v>32</v>
@@ -11551,25 +11557,25 @@
         <v>32</v>
       </c>
       <c r="BG36" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="BH36" t="s">
         <v>32</v>
       </c>
       <c r="BI36" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="BJ36" t="s">
         <v>32</v>
       </c>
       <c r="BK36" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="BL36" t="s">
         <v>32</v>
       </c>
       <c r="BO36" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="BP36" t="s">
         <v>32</v>
@@ -11581,13 +11587,13 @@
         <v>32</v>
       </c>
       <c r="BU36" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="BV36" t="s">
         <v>32</v>
       </c>
       <c r="BW36" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="BX36" t="s">
         <v>32</v>
@@ -11607,31 +11613,31 @@
         <v>32</v>
       </c>
       <c r="AE37" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="AF37" t="s">
         <v>32</v>
       </c>
       <c r="AO37" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="AP37" t="s">
         <v>32</v>
       </c>
       <c r="AU37" s="2" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AV37" t="s">
         <v>32</v>
       </c>
       <c r="AY37" s="2" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="AZ37" t="s">
         <v>32</v>
       </c>
       <c r="BC37" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="BD37" t="s">
         <v>32</v>
@@ -11643,25 +11649,25 @@
         <v>32</v>
       </c>
       <c r="BG37" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="BH37" t="s">
         <v>32</v>
       </c>
       <c r="BI37" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="BJ37" t="s">
         <v>32</v>
       </c>
       <c r="BK37" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="BL37" t="s">
         <v>32</v>
       </c>
       <c r="BO37" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="BP37" t="s">
         <v>32</v>
@@ -11673,13 +11679,13 @@
         <v>32</v>
       </c>
       <c r="BU37" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="BV37" t="s">
         <v>32</v>
       </c>
       <c r="BW37" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="BX37" t="s">
         <v>32</v>
@@ -11699,31 +11705,31 @@
         <v>32</v>
       </c>
       <c r="AE38" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="AF38" t="s">
         <v>32</v>
       </c>
       <c r="AO38" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="AP38" t="s">
         <v>32</v>
       </c>
       <c r="AU38" s="2" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AV38" t="s">
         <v>32</v>
       </c>
       <c r="AY38" s="2" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="AZ38" t="s">
         <v>32</v>
       </c>
       <c r="BC38" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="BD38" t="s">
         <v>32</v>
@@ -11735,25 +11741,25 @@
         <v>32</v>
       </c>
       <c r="BG38" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="BH38" t="s">
         <v>32</v>
       </c>
       <c r="BI38" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="BJ38" t="s">
         <v>32</v>
       </c>
       <c r="BK38" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="BL38" t="s">
         <v>32</v>
       </c>
       <c r="BO38" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="BP38" t="s">
         <v>32</v>
@@ -11765,13 +11771,13 @@
         <v>32</v>
       </c>
       <c r="BU38" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="BV38" t="s">
         <v>32</v>
       </c>
       <c r="BW38" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="BX38" t="s">
         <v>32</v>
@@ -11791,31 +11797,31 @@
         <v>32</v>
       </c>
       <c r="AE39" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="AF39" t="s">
         <v>32</v>
       </c>
       <c r="AO39" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="AP39" t="s">
         <v>32</v>
       </c>
       <c r="AU39" s="2" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="AV39" t="s">
         <v>32</v>
       </c>
       <c r="AY39" s="2" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="AZ39" t="s">
         <v>32</v>
       </c>
       <c r="BC39" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="BD39" t="s">
         <v>32</v>
@@ -11827,25 +11833,25 @@
         <v>32</v>
       </c>
       <c r="BG39" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="BH39" t="s">
         <v>32</v>
       </c>
       <c r="BI39" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="BJ39" t="s">
         <v>32</v>
       </c>
       <c r="BK39" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="BL39" t="s">
         <v>32</v>
       </c>
       <c r="BO39" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="BP39" t="s">
         <v>32</v>
@@ -11857,13 +11863,13 @@
         <v>32</v>
       </c>
       <c r="BU39" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="BV39" t="s">
         <v>32</v>
       </c>
       <c r="BW39" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="BX39" t="s">
         <v>32</v>
@@ -11883,31 +11889,31 @@
         <v>32</v>
       </c>
       <c r="AE40" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="AF40" t="s">
         <v>32</v>
       </c>
       <c r="AO40" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="AP40" t="s">
         <v>32</v>
       </c>
       <c r="AU40" s="2" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="AV40" t="s">
         <v>32</v>
       </c>
       <c r="AY40" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="AZ40" t="s">
         <v>32</v>
       </c>
       <c r="BC40" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="BD40" t="s">
         <v>32</v>
@@ -11919,25 +11925,25 @@
         <v>32</v>
       </c>
       <c r="BG40" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="BH40" t="s">
         <v>32</v>
       </c>
       <c r="BI40" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="BJ40" t="s">
         <v>32</v>
       </c>
       <c r="BK40" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="BL40" t="s">
         <v>32</v>
       </c>
       <c r="BO40" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="BP40" t="s">
         <v>32</v>
@@ -11949,13 +11955,13 @@
         <v>32</v>
       </c>
       <c r="BU40" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="BV40" t="s">
         <v>32</v>
       </c>
       <c r="BW40" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="BX40" t="s">
         <v>32</v>
@@ -11975,25 +11981,25 @@
         <v>32</v>
       </c>
       <c r="AE41" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="AF41" t="s">
         <v>32</v>
       </c>
       <c r="AO41" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AP41" t="s">
         <v>32</v>
       </c>
       <c r="AU41" s="2" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="AV41" t="s">
         <v>32</v>
       </c>
       <c r="BC41" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="BD41" t="s">
         <v>32</v>
@@ -12005,25 +12011,25 @@
         <v>32</v>
       </c>
       <c r="BG41" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="BH41" t="s">
         <v>32</v>
       </c>
       <c r="BI41" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="BJ41" t="s">
         <v>32</v>
       </c>
       <c r="BK41" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="BL41" t="s">
         <v>32</v>
       </c>
       <c r="BO41" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="BP41" t="s">
         <v>32</v>
@@ -12035,13 +12041,13 @@
         <v>32</v>
       </c>
       <c r="BU41" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="BV41" t="s">
         <v>32</v>
       </c>
       <c r="BW41" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="BX41" t="s">
         <v>32</v>
@@ -12061,25 +12067,25 @@
         <v>32</v>
       </c>
       <c r="AE42" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="AF42" t="s">
         <v>32</v>
       </c>
       <c r="AO42" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="AP42" t="s">
         <v>32</v>
       </c>
       <c r="AU42" s="2" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="AV42" t="s">
         <v>32</v>
       </c>
       <c r="BC42" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="BD42" t="s">
         <v>32</v>
@@ -12091,25 +12097,25 @@
         <v>32</v>
       </c>
       <c r="BG42" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="BH42" t="s">
         <v>32</v>
       </c>
       <c r="BI42" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="BJ42" t="s">
         <v>32</v>
       </c>
       <c r="BK42" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="BL42" t="s">
         <v>32</v>
       </c>
       <c r="BO42" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="BP42" t="s">
         <v>32</v>
@@ -12121,13 +12127,13 @@
         <v>32</v>
       </c>
       <c r="BU42" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="BV42" t="s">
         <v>32</v>
       </c>
       <c r="BW42" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="BX42" t="s">
         <v>32</v>
@@ -12147,25 +12153,25 @@
         <v>32</v>
       </c>
       <c r="AE43" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="AF43" t="s">
         <v>32</v>
       </c>
       <c r="AO43" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AP43" t="s">
         <v>32</v>
       </c>
       <c r="AU43" s="2" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="AV43" t="s">
         <v>32</v>
       </c>
       <c r="BC43" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="BD43" t="s">
         <v>32</v>
@@ -12177,25 +12183,25 @@
         <v>32</v>
       </c>
       <c r="BG43" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="BH43" t="s">
         <v>32</v>
       </c>
       <c r="BI43" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="BJ43" t="s">
         <v>32</v>
       </c>
       <c r="BK43" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="BL43" t="s">
         <v>32</v>
       </c>
       <c r="BO43" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="BP43" t="s">
         <v>32</v>
@@ -12207,13 +12213,13 @@
         <v>32</v>
       </c>
       <c r="BU43" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="BV43" t="s">
         <v>32</v>
       </c>
       <c r="BW43" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="BX43" t="s">
         <v>32</v>
@@ -12233,25 +12239,25 @@
         <v>32</v>
       </c>
       <c r="AE44" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="AF44" t="s">
         <v>32</v>
       </c>
       <c r="AO44" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="AP44" t="s">
         <v>32</v>
       </c>
       <c r="AU44" s="2" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="AV44" t="s">
         <v>32</v>
       </c>
       <c r="BC44" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="BD44" t="s">
         <v>32</v>
@@ -12263,25 +12269,25 @@
         <v>32</v>
       </c>
       <c r="BG44" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="BH44" t="s">
         <v>32</v>
       </c>
       <c r="BI44" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="BJ44" t="s">
         <v>32</v>
       </c>
       <c r="BK44" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="BL44" t="s">
         <v>32</v>
       </c>
       <c r="BO44" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="BP44" t="s">
         <v>32</v>
@@ -12293,13 +12299,13 @@
         <v>32</v>
       </c>
       <c r="BU44" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="BV44" t="s">
         <v>32</v>
       </c>
       <c r="BW44" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="BX44" t="s">
         <v>32</v>
@@ -12319,25 +12325,25 @@
         <v>32</v>
       </c>
       <c r="AE45" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="AF45" t="s">
         <v>32</v>
       </c>
       <c r="AO45" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="AP45" t="s">
         <v>32</v>
       </c>
       <c r="AU45" s="2" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="AV45" t="s">
         <v>32</v>
       </c>
       <c r="BC45" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="BD45" t="s">
         <v>32</v>
@@ -12349,25 +12355,25 @@
         <v>32</v>
       </c>
       <c r="BG45" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="BH45" t="s">
         <v>32</v>
       </c>
       <c r="BI45" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="BJ45" t="s">
         <v>32</v>
       </c>
       <c r="BK45" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="BL45" t="s">
         <v>32</v>
       </c>
       <c r="BO45" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="BP45" t="s">
         <v>32</v>
@@ -12379,13 +12385,13 @@
         <v>32</v>
       </c>
       <c r="BU45" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="BV45" t="s">
         <v>32</v>
       </c>
       <c r="BW45" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="BX45" t="s">
         <v>32</v>
@@ -12405,25 +12411,25 @@
         <v>32</v>
       </c>
       <c r="AE46" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="AF46" t="s">
         <v>32</v>
       </c>
       <c r="AO46" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="AP46" t="s">
         <v>32</v>
       </c>
       <c r="AU46" s="2" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="AV46" t="s">
         <v>32</v>
       </c>
       <c r="BC46" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="BD46" t="s">
         <v>32</v>
@@ -12435,25 +12441,25 @@
         <v>32</v>
       </c>
       <c r="BG46" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="BH46" t="s">
         <v>32</v>
       </c>
       <c r="BI46" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="BJ46" t="s">
         <v>32</v>
       </c>
       <c r="BK46" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="BL46" t="s">
         <v>32</v>
       </c>
       <c r="BO46" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="BP46" t="s">
         <v>32</v>
@@ -12465,13 +12471,13 @@
         <v>32</v>
       </c>
       <c r="BU46" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="BV46" t="s">
         <v>32</v>
       </c>
       <c r="BW46" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="BX46" t="s">
         <v>32</v>
@@ -12491,25 +12497,25 @@
         <v>32</v>
       </c>
       <c r="AE47" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="AF47" t="s">
         <v>32</v>
       </c>
       <c r="AO47" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AP47" t="s">
         <v>32</v>
       </c>
       <c r="AU47" s="2" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="AV47" t="s">
         <v>32</v>
       </c>
       <c r="BC47" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="BD47" t="s">
         <v>32</v>
@@ -12521,25 +12527,25 @@
         <v>32</v>
       </c>
       <c r="BG47" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="BH47" t="s">
         <v>32</v>
       </c>
       <c r="BI47" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="BJ47" t="s">
         <v>32</v>
       </c>
       <c r="BK47" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="BL47" t="s">
         <v>32</v>
       </c>
       <c r="BO47" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="BP47" t="s">
         <v>32</v>
@@ -12551,13 +12557,13 @@
         <v>32</v>
       </c>
       <c r="BU47" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="BV47" t="s">
         <v>32</v>
       </c>
       <c r="BW47" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="BX47" t="s">
         <v>32</v>
@@ -12577,25 +12583,25 @@
         <v>32</v>
       </c>
       <c r="AE48" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="AF48" t="s">
         <v>32</v>
       </c>
       <c r="AO48" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AP48" t="s">
         <v>32</v>
       </c>
       <c r="AU48" s="2" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="AV48" t="s">
         <v>32</v>
       </c>
       <c r="BC48" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="BD48" t="s">
         <v>32</v>
@@ -12607,25 +12613,25 @@
         <v>32</v>
       </c>
       <c r="BG48" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="BH48" t="s">
         <v>32</v>
       </c>
       <c r="BI48" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="BJ48" t="s">
         <v>32</v>
       </c>
       <c r="BK48" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="BL48" t="s">
         <v>32</v>
       </c>
       <c r="BO48" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="BP48" t="s">
         <v>32</v>
@@ -12637,13 +12643,13 @@
         <v>32</v>
       </c>
       <c r="BU48" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="BV48" t="s">
         <v>32</v>
       </c>
       <c r="BW48" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="BX48" t="s">
         <v>32</v>
@@ -12663,25 +12669,25 @@
         <v>32</v>
       </c>
       <c r="AE49" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="AF49" t="s">
         <v>32</v>
       </c>
       <c r="AO49" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="AP49" t="s">
         <v>32</v>
       </c>
       <c r="AU49" s="2" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="AV49" t="s">
         <v>32</v>
       </c>
       <c r="BC49" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="BD49" t="s">
         <v>32</v>
@@ -12693,25 +12699,25 @@
         <v>32</v>
       </c>
       <c r="BG49" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="BH49" t="s">
         <v>32</v>
       </c>
       <c r="BI49" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="BJ49" t="s">
         <v>32</v>
       </c>
       <c r="BK49" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="BL49" t="s">
         <v>32</v>
       </c>
       <c r="BO49" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="BP49" t="s">
         <v>32</v>
@@ -12723,13 +12729,13 @@
         <v>32</v>
       </c>
       <c r="BU49" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="BV49" t="s">
         <v>32</v>
       </c>
       <c r="BW49" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="BX49" t="s">
         <v>32</v>
@@ -12749,25 +12755,25 @@
         <v>32</v>
       </c>
       <c r="AE50" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="AF50" t="s">
         <v>32</v>
       </c>
       <c r="AO50" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="AP50" t="s">
         <v>32</v>
       </c>
       <c r="AU50" s="2" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="AV50" t="s">
         <v>32</v>
       </c>
       <c r="BC50" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="BD50" t="s">
         <v>32</v>
@@ -12779,25 +12785,25 @@
         <v>32</v>
       </c>
       <c r="BG50" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="BH50" t="s">
         <v>32</v>
       </c>
       <c r="BI50" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="BJ50" t="s">
         <v>32</v>
       </c>
       <c r="BK50" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="BL50" t="s">
         <v>32</v>
       </c>
       <c r="BO50" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="BP50" t="s">
         <v>32</v>
@@ -12809,13 +12815,13 @@
         <v>32</v>
       </c>
       <c r="BU50" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="BV50" t="s">
         <v>32</v>
       </c>
       <c r="BW50" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="BX50" t="s">
         <v>32</v>
@@ -12835,25 +12841,25 @@
         <v>32</v>
       </c>
       <c r="AE51" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="AF51" t="s">
         <v>32</v>
       </c>
       <c r="AO51" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="AP51" t="s">
         <v>32</v>
       </c>
       <c r="AU51" s="2" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="AV51" t="s">
         <v>32</v>
       </c>
       <c r="BC51" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="BD51" t="s">
         <v>32</v>
@@ -12865,25 +12871,25 @@
         <v>32</v>
       </c>
       <c r="BG51" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="BH51" t="s">
         <v>32</v>
       </c>
       <c r="BI51" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="BJ51" t="s">
         <v>32</v>
       </c>
       <c r="BK51" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="BL51" t="s">
         <v>32</v>
       </c>
       <c r="BO51" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="BP51" t="s">
         <v>32</v>
@@ -12895,13 +12901,13 @@
         <v>32</v>
       </c>
       <c r="BU51" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="BV51" t="s">
         <v>32</v>
       </c>
       <c r="BW51" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="BX51" t="s">
         <v>32</v>
@@ -12921,25 +12927,25 @@
         <v>32</v>
       </c>
       <c r="AE52" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="AF52" t="s">
         <v>32</v>
       </c>
       <c r="AO52" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AP52" t="s">
         <v>32</v>
       </c>
       <c r="AU52" s="2" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="AV52" t="s">
         <v>32</v>
       </c>
       <c r="BC52" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="BD52" t="s">
         <v>32</v>
@@ -12951,25 +12957,25 @@
         <v>32</v>
       </c>
       <c r="BG52" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="BH52" t="s">
         <v>32</v>
       </c>
       <c r="BI52" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="BJ52" t="s">
         <v>32</v>
       </c>
       <c r="BK52" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="BL52" t="s">
         <v>32</v>
       </c>
       <c r="BO52" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="BP52" t="s">
         <v>32</v>
@@ -12981,13 +12987,13 @@
         <v>32</v>
       </c>
       <c r="BU52" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="BV52" t="s">
         <v>32</v>
       </c>
       <c r="BW52" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="BX52" t="s">
         <v>32</v>
@@ -13007,25 +13013,25 @@
         <v>32</v>
       </c>
       <c r="AE53" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="AF53" t="s">
         <v>32</v>
       </c>
       <c r="AO53" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AP53" t="s">
         <v>32</v>
       </c>
       <c r="AU53" s="2" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="AV53" t="s">
         <v>32</v>
       </c>
       <c r="BC53" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="BD53" t="s">
         <v>32</v>
@@ -13037,25 +13043,25 @@
         <v>32</v>
       </c>
       <c r="BG53" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="BH53" t="s">
         <v>32</v>
       </c>
       <c r="BI53" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="BJ53" t="s">
         <v>32</v>
       </c>
       <c r="BK53" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="BL53" t="s">
         <v>32</v>
       </c>
       <c r="BO53" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="BP53" t="s">
         <v>32</v>
@@ -13067,13 +13073,13 @@
         <v>32</v>
       </c>
       <c r="BU53" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="BV53" t="s">
         <v>32</v>
       </c>
       <c r="BW53" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="BX53" t="s">
         <v>32</v>
@@ -13093,25 +13099,25 @@
         <v>32</v>
       </c>
       <c r="AE54" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="AF54" t="s">
         <v>32</v>
       </c>
       <c r="AO54" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="AP54" t="s">
         <v>32</v>
       </c>
       <c r="AU54" s="2" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="AV54" t="s">
         <v>32</v>
       </c>
       <c r="BC54" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="BD54" t="s">
         <v>32</v>
@@ -13123,25 +13129,25 @@
         <v>32</v>
       </c>
       <c r="BG54" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="BH54" t="s">
         <v>32</v>
       </c>
       <c r="BI54" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="BJ54" t="s">
         <v>32</v>
       </c>
       <c r="BK54" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="BL54" t="s">
         <v>32</v>
       </c>
       <c r="BO54" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="BP54" t="s">
         <v>32</v>
@@ -13153,13 +13159,13 @@
         <v>32</v>
       </c>
       <c r="BU54" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="BV54" t="s">
         <v>32</v>
       </c>
       <c r="BW54" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="BX54" t="s">
         <v>32</v>
@@ -13179,25 +13185,25 @@
         <v>32</v>
       </c>
       <c r="AE55" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="AF55" t="s">
         <v>32</v>
       </c>
       <c r="AO55" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AP55" t="s">
         <v>32</v>
       </c>
       <c r="AU55" s="2" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="AV55" t="s">
         <v>32</v>
       </c>
       <c r="BC55" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="BD55" t="s">
         <v>32</v>
@@ -13209,25 +13215,25 @@
         <v>32</v>
       </c>
       <c r="BG55" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="BH55" t="s">
         <v>32</v>
       </c>
       <c r="BI55" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="BJ55" t="s">
         <v>32</v>
       </c>
       <c r="BK55" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="BL55" t="s">
         <v>32</v>
       </c>
       <c r="BO55" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="BP55" t="s">
         <v>32</v>
@@ -13239,13 +13245,13 @@
         <v>32</v>
       </c>
       <c r="BU55" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="BV55" t="s">
         <v>32</v>
       </c>
       <c r="BW55" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="BX55" t="s">
         <v>32</v>
@@ -13265,25 +13271,25 @@
         <v>32</v>
       </c>
       <c r="AE56" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="AF56" t="s">
         <v>32</v>
       </c>
       <c r="AO56" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="AP56" t="s">
         <v>32</v>
       </c>
       <c r="AU56" s="2" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AV56" t="s">
         <v>32</v>
       </c>
       <c r="BC56" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="BD56" t="s">
         <v>32</v>
@@ -13295,25 +13301,25 @@
         <v>32</v>
       </c>
       <c r="BG56" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="BH56" t="s">
         <v>32</v>
       </c>
       <c r="BI56" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="BJ56" t="s">
         <v>32</v>
       </c>
       <c r="BK56" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="BL56" t="s">
         <v>32</v>
       </c>
       <c r="BO56" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="BP56" t="s">
         <v>32</v>
@@ -13325,13 +13331,13 @@
         <v>32</v>
       </c>
       <c r="BU56" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="BV56" t="s">
         <v>32</v>
       </c>
       <c r="BW56" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="BX56" t="s">
         <v>32</v>
@@ -13351,25 +13357,25 @@
         <v>32</v>
       </c>
       <c r="AE57" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="AF57" t="s">
         <v>32</v>
       </c>
       <c r="AO57" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="AP57" t="s">
         <v>32</v>
       </c>
       <c r="AU57" s="2" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="AV57" t="s">
         <v>32</v>
       </c>
       <c r="BC57" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="BD57" t="s">
         <v>32</v>
@@ -13381,25 +13387,25 @@
         <v>32</v>
       </c>
       <c r="BG57" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="BH57" t="s">
         <v>32</v>
       </c>
       <c r="BI57" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="BJ57" t="s">
         <v>32</v>
       </c>
       <c r="BK57" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="BL57" t="s">
         <v>32</v>
       </c>
       <c r="BO57" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="BP57" t="s">
         <v>32</v>
@@ -13411,13 +13417,13 @@
         <v>32</v>
       </c>
       <c r="BU57" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="BV57" t="s">
         <v>32</v>
       </c>
       <c r="BW57" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="BX57" t="s">
         <v>32</v>
@@ -13437,25 +13443,25 @@
         <v>32</v>
       </c>
       <c r="AE58" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="AF58" t="s">
         <v>32</v>
       </c>
       <c r="AO58" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="AP58" t="s">
         <v>32</v>
       </c>
       <c r="AU58" s="2" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="AV58" t="s">
         <v>32</v>
       </c>
       <c r="BC58" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="BD58" t="s">
         <v>32</v>
@@ -13467,25 +13473,25 @@
         <v>32</v>
       </c>
       <c r="BG58" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="BH58" t="s">
         <v>32</v>
       </c>
       <c r="BI58" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="BJ58" t="s">
         <v>32</v>
       </c>
       <c r="BK58" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="BL58" t="s">
         <v>32</v>
       </c>
       <c r="BO58" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="BP58" t="s">
         <v>32</v>
@@ -13497,13 +13503,13 @@
         <v>32</v>
       </c>
       <c r="BU58" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="BV58" t="s">
         <v>32</v>
       </c>
       <c r="BW58" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="BX58" t="s">
         <v>32</v>
@@ -13523,25 +13529,25 @@
         <v>32</v>
       </c>
       <c r="AE59" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="AF59" t="s">
         <v>32</v>
       </c>
       <c r="AO59" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AP59" t="s">
         <v>32</v>
       </c>
       <c r="AU59" s="2" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="AV59" t="s">
         <v>32</v>
       </c>
       <c r="BC59" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="BD59" t="s">
         <v>32</v>
@@ -13553,25 +13559,25 @@
         <v>32</v>
       </c>
       <c r="BG59" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="BH59" t="s">
         <v>32</v>
       </c>
       <c r="BI59" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="BJ59" t="s">
         <v>32</v>
       </c>
       <c r="BK59" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="BL59" t="s">
         <v>32</v>
       </c>
       <c r="BO59" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="BP59" t="s">
         <v>32</v>
@@ -13583,13 +13589,13 @@
         <v>32</v>
       </c>
       <c r="BU59" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="BV59" t="s">
         <v>32</v>
       </c>
       <c r="BW59" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="BX59" t="s">
         <v>32</v>
@@ -13609,25 +13615,25 @@
         <v>32</v>
       </c>
       <c r="AE60" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="AF60" t="s">
         <v>32</v>
       </c>
       <c r="AO60" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="AP60" t="s">
         <v>32</v>
       </c>
       <c r="AU60" s="2" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="AV60" t="s">
         <v>32</v>
       </c>
       <c r="BC60" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="BD60" t="s">
         <v>32</v>
@@ -13639,25 +13645,25 @@
         <v>32</v>
       </c>
       <c r="BG60" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="BH60" t="s">
         <v>32</v>
       </c>
       <c r="BI60" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="BJ60" t="s">
         <v>32</v>
       </c>
       <c r="BK60" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="BL60" t="s">
         <v>32</v>
       </c>
       <c r="BO60" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="BP60" t="s">
         <v>32</v>
@@ -13669,13 +13675,13 @@
         <v>32</v>
       </c>
       <c r="BU60" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="BV60" t="s">
         <v>32</v>
       </c>
       <c r="BW60" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="BX60" t="s">
         <v>32</v>
@@ -13695,25 +13701,25 @@
         <v>32</v>
       </c>
       <c r="AE61" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="AF61" t="s">
         <v>32</v>
       </c>
       <c r="AO61" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="AP61" t="s">
         <v>32</v>
       </c>
       <c r="AU61" s="2" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="AV61" t="s">
         <v>32</v>
       </c>
       <c r="BC61" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="BD61" t="s">
         <v>32</v>
@@ -13725,25 +13731,25 @@
         <v>32</v>
       </c>
       <c r="BG61" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="BH61" t="s">
         <v>32</v>
       </c>
       <c r="BI61" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="BJ61" t="s">
         <v>32</v>
       </c>
       <c r="BK61" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="BL61" t="s">
         <v>32</v>
       </c>
       <c r="BO61" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="BP61" t="s">
         <v>32</v>
@@ -13755,13 +13761,13 @@
         <v>32</v>
       </c>
       <c r="BU61" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="BV61" t="s">
         <v>32</v>
       </c>
       <c r="BW61" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="BX61" t="s">
         <v>32</v>
@@ -13781,25 +13787,25 @@
         <v>32</v>
       </c>
       <c r="AE62" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="AF62" t="s">
         <v>32</v>
       </c>
       <c r="AO62" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="AP62" t="s">
         <v>32</v>
       </c>
       <c r="AU62" s="2" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="AV62" t="s">
         <v>32</v>
       </c>
       <c r="BC62" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="BD62" t="s">
         <v>32</v>
@@ -13811,25 +13817,25 @@
         <v>32</v>
       </c>
       <c r="BG62" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="BH62" t="s">
         <v>32</v>
       </c>
       <c r="BI62" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="BJ62" t="s">
         <v>32</v>
       </c>
       <c r="BK62" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="BL62" t="s">
         <v>32</v>
       </c>
       <c r="BO62" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="BP62" t="s">
         <v>32</v>
@@ -13841,13 +13847,13 @@
         <v>32</v>
       </c>
       <c r="BU62" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="BV62" t="s">
         <v>32</v>
       </c>
       <c r="BW62" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="BX62" t="s">
         <v>32</v>
@@ -13867,25 +13873,25 @@
         <v>32</v>
       </c>
       <c r="AE63" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="AF63" t="s">
         <v>32</v>
       </c>
       <c r="AO63" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="AP63" t="s">
         <v>32</v>
       </c>
       <c r="AU63" s="2" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="AV63" t="s">
         <v>32</v>
       </c>
       <c r="BC63" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="BD63" t="s">
         <v>32</v>
@@ -13897,25 +13903,25 @@
         <v>32</v>
       </c>
       <c r="BG63" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="BH63" t="s">
         <v>32</v>
       </c>
       <c r="BI63" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="BJ63" t="s">
         <v>32</v>
       </c>
       <c r="BK63" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="BL63" t="s">
         <v>32</v>
       </c>
       <c r="BO63" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="BP63" t="s">
         <v>32</v>
@@ -13927,13 +13933,13 @@
         <v>32</v>
       </c>
       <c r="BU63" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="BV63" t="s">
         <v>32</v>
       </c>
       <c r="BW63" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="BX63" t="s">
         <v>32</v>
@@ -13959,19 +13965,19 @@
         <v>32</v>
       </c>
       <c r="AO64" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AP64" t="s">
         <v>32</v>
       </c>
       <c r="AU64" s="2" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="AV64" t="s">
         <v>32</v>
       </c>
       <c r="BC64" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="BD64" t="s">
         <v>32</v>
@@ -14001,7 +14007,7 @@
         <v>32</v>
       </c>
       <c r="BO64" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="BP64" t="s">
         <v>32</v>
@@ -14019,7 +14025,7 @@
         <v>32</v>
       </c>
       <c r="BW64" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="BX64" t="s">
         <v>32</v>
@@ -14039,25 +14045,25 @@
         <v>32</v>
       </c>
       <c r="AE65" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="AF65" t="s">
         <v>32</v>
       </c>
       <c r="AO65" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="AP65" t="s">
         <v>32</v>
       </c>
       <c r="AU65" s="2" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="AV65" t="s">
         <v>32</v>
       </c>
       <c r="BC65" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="BD65" t="s">
         <v>32</v>
@@ -14069,25 +14075,25 @@
         <v>32</v>
       </c>
       <c r="BG65" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="BH65" t="s">
         <v>32</v>
       </c>
       <c r="BI65" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="BJ65" t="s">
         <v>32</v>
       </c>
       <c r="BK65" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="BL65" t="s">
         <v>32</v>
       </c>
       <c r="BO65" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="BP65" t="s">
         <v>32</v>
@@ -14099,13 +14105,13 @@
         <v>32</v>
       </c>
       <c r="BU65" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="BV65" t="s">
         <v>32</v>
       </c>
       <c r="BW65" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="BX65" t="s">
         <v>32</v>
@@ -14125,25 +14131,25 @@
         <v>32</v>
       </c>
       <c r="AE66" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="AF66" t="s">
         <v>32</v>
       </c>
       <c r="AO66" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="AP66" t="s">
         <v>32</v>
       </c>
       <c r="AU66" s="2" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="AV66" t="s">
         <v>32</v>
       </c>
       <c r="BC66" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="BD66" t="s">
         <v>32</v>
@@ -14155,25 +14161,25 @@
         <v>32</v>
       </c>
       <c r="BG66" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="BH66" t="s">
         <v>32</v>
       </c>
       <c r="BI66" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="BJ66" t="s">
         <v>32</v>
       </c>
       <c r="BK66" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="BL66" t="s">
         <v>32</v>
       </c>
       <c r="BO66" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="BP66" t="s">
         <v>32</v>
@@ -14185,13 +14191,13 @@
         <v>32</v>
       </c>
       <c r="BU66" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="BV66" t="s">
         <v>32</v>
       </c>
       <c r="BW66" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="BX66" t="s">
         <v>32</v>
@@ -14211,25 +14217,25 @@
         <v>32</v>
       </c>
       <c r="AE67" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="AF67" t="s">
         <v>32</v>
       </c>
       <c r="AO67" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="AP67" t="s">
         <v>32</v>
       </c>
       <c r="AU67" s="2" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="AV67" t="s">
         <v>32</v>
       </c>
       <c r="BC67" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="BD67" t="s">
         <v>32</v>
@@ -14241,25 +14247,25 @@
         <v>32</v>
       </c>
       <c r="BG67" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="BH67" t="s">
         <v>32</v>
       </c>
       <c r="BI67" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="BJ67" t="s">
         <v>32</v>
       </c>
       <c r="BK67" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="BL67" t="s">
         <v>32</v>
       </c>
       <c r="BO67" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="BP67" t="s">
         <v>32</v>
@@ -14271,13 +14277,13 @@
         <v>32</v>
       </c>
       <c r="BU67" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="BV67" t="s">
         <v>32</v>
       </c>
       <c r="BW67" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="BX67" t="s">
         <v>32</v>
@@ -14297,25 +14303,25 @@
         <v>32</v>
       </c>
       <c r="AE68" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="AF68" t="s">
         <v>32</v>
       </c>
       <c r="AO68" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="AP68" t="s">
         <v>32</v>
       </c>
       <c r="AU68" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="AV68" t="s">
         <v>32</v>
       </c>
       <c r="BC68" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="BD68" t="s">
         <v>32</v>
@@ -14327,25 +14333,25 @@
         <v>32</v>
       </c>
       <c r="BG68" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="BH68" t="s">
         <v>32</v>
       </c>
       <c r="BI68" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="BJ68" t="s">
         <v>32</v>
       </c>
       <c r="BK68" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="BL68" t="s">
         <v>32</v>
       </c>
       <c r="BO68" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="BP68" t="s">
         <v>32</v>
@@ -14357,13 +14363,13 @@
         <v>32</v>
       </c>
       <c r="BU68" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="BV68" t="s">
         <v>32</v>
       </c>
       <c r="BW68" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="BX68" t="s">
         <v>32</v>
@@ -14383,19 +14389,19 @@
         <v>32</v>
       </c>
       <c r="AO69" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="AP69" t="s">
         <v>32</v>
       </c>
       <c r="AU69" s="2" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="AV69" t="s">
         <v>32</v>
       </c>
       <c r="BC69" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="BD69" t="s">
         <v>32</v>
@@ -14407,7 +14413,7 @@
         <v>32</v>
       </c>
       <c r="BO69" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="BP69" t="s">
         <v>32</v>
@@ -14419,7 +14425,7 @@
         <v>32</v>
       </c>
       <c r="BW69" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="BX69" t="s">
         <v>32</v>
@@ -14439,19 +14445,19 @@
         <v>32</v>
       </c>
       <c r="AO70" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AP70" t="s">
         <v>32</v>
       </c>
       <c r="AU70" s="2" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="AV70" t="s">
         <v>32</v>
       </c>
       <c r="BC70" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="BD70" t="s">
         <v>32</v>
@@ -14463,7 +14469,7 @@
         <v>32</v>
       </c>
       <c r="BO70" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="BP70" t="s">
         <v>32</v>
@@ -14475,7 +14481,7 @@
         <v>32</v>
       </c>
       <c r="BW70" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="BX70" t="s">
         <v>32</v>
@@ -14495,19 +14501,19 @@
         <v>32</v>
       </c>
       <c r="AO71" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="AP71" t="s">
         <v>32</v>
       </c>
       <c r="AU71" s="2" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="AV71" t="s">
         <v>32</v>
       </c>
       <c r="BC71" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="BD71" t="s">
         <v>32</v>
@@ -14519,7 +14525,7 @@
         <v>32</v>
       </c>
       <c r="BO71" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="BP71" t="s">
         <v>32</v>
@@ -14531,7 +14537,7 @@
         <v>32</v>
       </c>
       <c r="BW71" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="BX71" t="s">
         <v>32</v>
@@ -14551,19 +14557,19 @@
         <v>32</v>
       </c>
       <c r="AO72" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="AP72" t="s">
         <v>32</v>
       </c>
       <c r="AU72" s="2" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="AV72" t="s">
         <v>32</v>
       </c>
       <c r="BC72" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="BD72" t="s">
         <v>32</v>
@@ -14575,7 +14581,7 @@
         <v>32</v>
       </c>
       <c r="BO72" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="BP72" t="s">
         <v>32</v>
@@ -14587,7 +14593,7 @@
         <v>32</v>
       </c>
       <c r="BW72" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="BX72" t="s">
         <v>32</v>
@@ -14607,19 +14613,19 @@
         <v>32</v>
       </c>
       <c r="AO73" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="AP73" t="s">
         <v>32</v>
       </c>
       <c r="AU73" s="2" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="AV73" t="s">
         <v>32</v>
       </c>
       <c r="BC73" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="BD73" t="s">
         <v>32</v>
@@ -14631,7 +14637,7 @@
         <v>32</v>
       </c>
       <c r="BO73" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="BP73" t="s">
         <v>32</v>
@@ -14643,7 +14649,7 @@
         <v>32</v>
       </c>
       <c r="BW73" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="BX73" t="s">
         <v>32</v>
@@ -14663,19 +14669,19 @@
         <v>32</v>
       </c>
       <c r="AO74" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="AP74" t="s">
         <v>32</v>
       </c>
       <c r="AU74" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="AV74" t="s">
         <v>32</v>
       </c>
       <c r="BC74" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="BD74" t="s">
         <v>32</v>
@@ -14687,7 +14693,7 @@
         <v>32</v>
       </c>
       <c r="BO74" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="BP74" t="s">
         <v>32</v>
@@ -14699,7 +14705,7 @@
         <v>32</v>
       </c>
       <c r="BW74" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="BX74" t="s">
         <v>32</v>
@@ -14719,19 +14725,19 @@
         <v>32</v>
       </c>
       <c r="AO75" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AP75" t="s">
         <v>32</v>
       </c>
       <c r="AU75" s="2" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="AV75" t="s">
         <v>32</v>
       </c>
       <c r="BC75" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="BD75" t="s">
         <v>32</v>
@@ -14743,7 +14749,7 @@
         <v>32</v>
       </c>
       <c r="BO75" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="BP75" t="s">
         <v>32</v>
@@ -14755,7 +14761,7 @@
         <v>32</v>
       </c>
       <c r="BW75" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="BX75" t="s">
         <v>32</v>
@@ -14775,19 +14781,19 @@
         <v>32</v>
       </c>
       <c r="AO76" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="AP76" t="s">
         <v>32</v>
       </c>
       <c r="AU76" s="2" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AV76" t="s">
         <v>32</v>
       </c>
       <c r="BC76" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="BD76" t="s">
         <v>32</v>
@@ -14799,7 +14805,7 @@
         <v>32</v>
       </c>
       <c r="BO76" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="BP76" t="s">
         <v>32</v>
@@ -14811,7 +14817,7 @@
         <v>32</v>
       </c>
       <c r="BW76" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="BX76" t="s">
         <v>32</v>
@@ -14831,19 +14837,19 @@
         <v>32</v>
       </c>
       <c r="AO77" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="AP77" t="s">
         <v>32</v>
       </c>
       <c r="AU77" s="2" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="AV77" t="s">
         <v>32</v>
       </c>
       <c r="BC77" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="BD77" t="s">
         <v>32</v>
@@ -14855,7 +14861,7 @@
         <v>32</v>
       </c>
       <c r="BO77" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="BP77" t="s">
         <v>32</v>
@@ -14867,7 +14873,7 @@
         <v>32</v>
       </c>
       <c r="BW77" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="BX77" t="s">
         <v>32</v>
@@ -14887,19 +14893,19 @@
         <v>32</v>
       </c>
       <c r="AO78" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="AP78" t="s">
         <v>32</v>
       </c>
       <c r="AU78" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="AV78" t="s">
         <v>32</v>
       </c>
       <c r="BC78" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="BD78" t="s">
         <v>32</v>
@@ -14911,7 +14917,7 @@
         <v>32</v>
       </c>
       <c r="BO78" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="BP78" t="s">
         <v>32</v>
@@ -14923,7 +14929,7 @@
         <v>32</v>
       </c>
       <c r="BW78" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="BX78" t="s">
         <v>32</v>
@@ -14943,19 +14949,19 @@
         <v>32</v>
       </c>
       <c r="AO79" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="AP79" t="s">
         <v>32</v>
       </c>
       <c r="AU79" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="AV79" t="s">
         <v>32</v>
       </c>
       <c r="BC79" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="BD79" t="s">
         <v>32</v>
@@ -14967,7 +14973,7 @@
         <v>32</v>
       </c>
       <c r="BO79" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="BP79" t="s">
         <v>32</v>
@@ -14979,7 +14985,7 @@
         <v>32</v>
       </c>
       <c r="BW79" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="BX79" t="s">
         <v>32</v>
@@ -14999,19 +15005,19 @@
         <v>32</v>
       </c>
       <c r="AO80" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AP80" t="s">
         <v>32</v>
       </c>
       <c r="AU80" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="AV80" t="s">
         <v>32</v>
       </c>
       <c r="BC80" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="BD80" t="s">
         <v>32</v>
@@ -15023,7 +15029,7 @@
         <v>32</v>
       </c>
       <c r="BO80" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="BP80" t="s">
         <v>32</v>
@@ -15035,7 +15041,7 @@
         <v>32</v>
       </c>
       <c r="BW80" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="BX80" t="s">
         <v>32</v>
@@ -15055,19 +15061,19 @@
         <v>32</v>
       </c>
       <c r="AO81" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="AP81" t="s">
         <v>32</v>
       </c>
       <c r="AU81" s="2" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="AV81" t="s">
         <v>32</v>
       </c>
       <c r="BC81" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="BD81" t="s">
         <v>32</v>
@@ -15079,7 +15085,7 @@
         <v>32</v>
       </c>
       <c r="BO81" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="BP81" t="s">
         <v>32</v>
@@ -15091,7 +15097,7 @@
         <v>32</v>
       </c>
       <c r="BW81" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="BX81" t="s">
         <v>32</v>
@@ -15111,19 +15117,19 @@
         <v>32</v>
       </c>
       <c r="AO82" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AP82" t="s">
         <v>32</v>
       </c>
       <c r="AU82" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="AV82" t="s">
         <v>32</v>
       </c>
       <c r="BC82" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="BD82" t="s">
         <v>32</v>
@@ -15135,7 +15141,7 @@
         <v>32</v>
       </c>
       <c r="BO82" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="BP82" t="s">
         <v>32</v>
@@ -15147,7 +15153,7 @@
         <v>32</v>
       </c>
       <c r="BW82" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="BX82" t="s">
         <v>32</v>
@@ -15167,19 +15173,19 @@
         <v>32</v>
       </c>
       <c r="AO83" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="AP83" t="s">
         <v>32</v>
       </c>
       <c r="AU83" s="2" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="AV83" t="s">
         <v>32</v>
       </c>
       <c r="BC83" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="BD83" t="s">
         <v>32</v>
@@ -15191,7 +15197,7 @@
         <v>32</v>
       </c>
       <c r="BO83" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="BP83" t="s">
         <v>32</v>
@@ -15203,7 +15209,7 @@
         <v>32</v>
       </c>
       <c r="BW83" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="BX83" t="s">
         <v>32</v>
@@ -15223,19 +15229,19 @@
         <v>32</v>
       </c>
       <c r="AO84" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="AP84" t="s">
         <v>32</v>
       </c>
       <c r="AU84" s="2" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="AV84" t="s">
         <v>32</v>
       </c>
       <c r="BC84" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="BD84" t="s">
         <v>32</v>
@@ -15247,7 +15253,7 @@
         <v>32</v>
       </c>
       <c r="BO84" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="BP84" t="s">
         <v>32</v>
@@ -15259,7 +15265,7 @@
         <v>32</v>
       </c>
       <c r="BW84" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="BX84" t="s">
         <v>32</v>
@@ -15279,19 +15285,19 @@
         <v>32</v>
       </c>
       <c r="AO85" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AP85" t="s">
         <v>32</v>
       </c>
       <c r="AU85" s="2" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="AV85" t="s">
         <v>32</v>
       </c>
       <c r="BC85" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="BD85" t="s">
         <v>32</v>
@@ -15303,7 +15309,7 @@
         <v>32</v>
       </c>
       <c r="BO85" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="BP85" t="s">
         <v>32</v>
@@ -15315,7 +15321,7 @@
         <v>32</v>
       </c>
       <c r="BW85" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="BX85" t="s">
         <v>32</v>
@@ -15335,19 +15341,19 @@
         <v>32</v>
       </c>
       <c r="AO86" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AP86" t="s">
         <v>32</v>
       </c>
       <c r="AU86" s="2" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="AV86" t="s">
         <v>32</v>
       </c>
       <c r="BC86" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="BD86" t="s">
         <v>32</v>
@@ -15359,7 +15365,7 @@
         <v>32</v>
       </c>
       <c r="BO86" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="BP86" t="s">
         <v>32</v>
@@ -15371,7 +15377,7 @@
         <v>32</v>
       </c>
       <c r="BW86" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="BX86" t="s">
         <v>32</v>
@@ -15397,7 +15403,7 @@
         <v>32</v>
       </c>
       <c r="BO87" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="BP87" t="s">
         <v>32</v>
@@ -15429,7 +15435,7 @@
         <v>32</v>
       </c>
       <c r="BO88" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="BP88" t="s">
         <v>32</v>
@@ -15461,7 +15467,7 @@
         <v>32</v>
       </c>
       <c r="BO89" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="BP89" t="s">
         <v>32</v>
@@ -15493,7 +15499,7 @@
         <v>32</v>
       </c>
       <c r="BO90" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="BP90" t="s">
         <v>32</v>
@@ -15525,7 +15531,7 @@
         <v>32</v>
       </c>
       <c r="BO91" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="BP91" t="s">
         <v>32</v>
@@ -15589,7 +15595,7 @@
         <v>32</v>
       </c>
       <c r="BO93" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="BP93" t="s">
         <v>32</v>
@@ -15621,7 +15627,7 @@
         <v>32</v>
       </c>
       <c r="BO94" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="BP94" t="s">
         <v>32</v>
@@ -15653,7 +15659,7 @@
         <v>32</v>
       </c>
       <c r="BO95" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="BP95" t="s">
         <v>32</v>
@@ -15685,7 +15691,7 @@
         <v>32</v>
       </c>
       <c r="BO96" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="BP96" t="s">
         <v>32</v>
@@ -15717,7 +15723,7 @@
         <v>32</v>
       </c>
       <c r="BO97" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="BP97" t="s">
         <v>32</v>
@@ -15749,7 +15755,7 @@
         <v>32</v>
       </c>
       <c r="BO98" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="BP98" t="s">
         <v>32</v>
@@ -15781,7 +15787,7 @@
         <v>32</v>
       </c>
       <c r="BO99" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="BP99" t="s">
         <v>32</v>
@@ -15813,7 +15819,7 @@
         <v>32</v>
       </c>
       <c r="BO100" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="BP100" t="s">
         <v>32</v>
@@ -15845,7 +15851,7 @@
         <v>32</v>
       </c>
       <c r="BO101" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="BP101" t="s">
         <v>32</v>
@@ -15877,7 +15883,7 @@
         <v>32</v>
       </c>
       <c r="BO102" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="BP102" t="s">
         <v>32</v>
@@ -15909,7 +15915,7 @@
         <v>32</v>
       </c>
       <c r="BO103" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="BP103" t="s">
         <v>32</v>
@@ -15941,7 +15947,7 @@
         <v>32</v>
       </c>
       <c r="BO104" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="BP104" t="s">
         <v>32</v>
@@ -15973,7 +15979,7 @@
         <v>32</v>
       </c>
       <c r="BO105" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="BP105" t="s">
         <v>32</v>
@@ -16005,7 +16011,7 @@
         <v>32</v>
       </c>
       <c r="BO106" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="BP106" t="s">
         <v>32</v>
@@ -16037,7 +16043,7 @@
         <v>32</v>
       </c>
       <c r="BO107" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="BP107" t="s">
         <v>32</v>
@@ -16069,7 +16075,7 @@
         <v>32</v>
       </c>
       <c r="BO108" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="BP108" t="s">
         <v>32</v>
@@ -16101,7 +16107,7 @@
         <v>32</v>
       </c>
       <c r="BO109" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="BP109" t="s">
         <v>32</v>
@@ -16133,7 +16139,7 @@
         <v>32</v>
       </c>
       <c r="BO110" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="BP110" t="s">
         <v>32</v>
@@ -16165,7 +16171,7 @@
         <v>32</v>
       </c>
       <c r="BO111" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="BP111" t="s">
         <v>32</v>
@@ -16197,7 +16203,7 @@
         <v>32</v>
       </c>
       <c r="BO112" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="BP112" t="s">
         <v>32</v>
@@ -16229,7 +16235,7 @@
         <v>32</v>
       </c>
       <c r="BO113" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="BP113" t="s">
         <v>32</v>
@@ -16261,7 +16267,7 @@
         <v>32</v>
       </c>
       <c r="BO114" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="BP114" t="s">
         <v>32</v>
@@ -16293,7 +16299,7 @@
         <v>32</v>
       </c>
       <c r="BO115" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="BP115" t="s">
         <v>32</v>
@@ -16325,7 +16331,7 @@
         <v>32</v>
       </c>
       <c r="BO116" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="BP116" t="s">
         <v>32</v>
@@ -16357,7 +16363,7 @@
         <v>32</v>
       </c>
       <c r="BO117" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="BP117" t="s">
         <v>32</v>
@@ -16389,7 +16395,7 @@
         <v>32</v>
       </c>
       <c r="BO118" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="BP118" t="s">
         <v>32</v>
@@ -16421,7 +16427,7 @@
         <v>32</v>
       </c>
       <c r="BO119" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="BP119" t="s">
         <v>32</v>
@@ -16453,7 +16459,7 @@
         <v>32</v>
       </c>
       <c r="BO120" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="BP120" t="s">
         <v>32</v>
@@ -16485,7 +16491,7 @@
         <v>32</v>
       </c>
       <c r="BO121" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="BP121" t="s">
         <v>32</v>
@@ -16517,7 +16523,7 @@
         <v>32</v>
       </c>
       <c r="BO122" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="BP122" t="s">
         <v>32</v>
@@ -16549,7 +16555,7 @@
         <v>32</v>
       </c>
       <c r="BO123" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="BP123" t="s">
         <v>32</v>
@@ -16581,7 +16587,7 @@
         <v>32</v>
       </c>
       <c r="BO124" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="BP124" t="s">
         <v>32</v>
@@ -16613,7 +16619,7 @@
         <v>32</v>
       </c>
       <c r="BO125" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="BP125" t="s">
         <v>32</v>
@@ -16645,7 +16651,7 @@
         <v>32</v>
       </c>
       <c r="BO126" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="BP126" t="s">
         <v>32</v>
@@ -16677,7 +16683,7 @@
         <v>32</v>
       </c>
       <c r="BO127" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="BP127" t="s">
         <v>32</v>
@@ -16709,7 +16715,7 @@
         <v>32</v>
       </c>
       <c r="BO128" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="BP128" t="s">
         <v>32</v>
@@ -16741,7 +16747,7 @@
         <v>32</v>
       </c>
       <c r="BO129" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="BP129" t="s">
         <v>32</v>
@@ -16773,7 +16779,7 @@
         <v>32</v>
       </c>
       <c r="BO130" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="BP130" t="s">
         <v>32</v>
@@ -16805,7 +16811,7 @@
         <v>32</v>
       </c>
       <c r="BO131" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="BP131" t="s">
         <v>32</v>
@@ -16837,7 +16843,7 @@
         <v>32</v>
       </c>
       <c r="BO132" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="BP132" t="s">
         <v>32</v>
@@ -16869,7 +16875,7 @@
         <v>32</v>
       </c>
       <c r="BO133" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="BP133" t="s">
         <v>32</v>
@@ -16901,7 +16907,7 @@
         <v>32</v>
       </c>
       <c r="BO134" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="BP134" t="s">
         <v>32</v>
@@ -16933,7 +16939,7 @@
         <v>32</v>
       </c>
       <c r="BO135" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="BP135" t="s">
         <v>32</v>
@@ -16965,7 +16971,7 @@
         <v>32</v>
       </c>
       <c r="BO136" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="BP136" t="s">
         <v>32</v>
@@ -16997,7 +17003,7 @@
         <v>32</v>
       </c>
       <c r="BO137" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="BP137" t="s">
         <v>32</v>
@@ -17023,7 +17029,7 @@
         <v>32</v>
       </c>
       <c r="BO138" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="BP138" t="s">
         <v>32</v>
@@ -17049,7 +17055,7 @@
         <v>32</v>
       </c>
       <c r="BO139" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="BP139" t="s">
         <v>32</v>
@@ -17075,7 +17081,7 @@
         <v>32</v>
       </c>
       <c r="BO140" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="BP140" t="s">
         <v>32</v>
@@ -17101,7 +17107,7 @@
         <v>32</v>
       </c>
       <c r="BO141" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="BP141" t="s">
         <v>32</v>
@@ -17153,7 +17159,7 @@
         <v>32</v>
       </c>
       <c r="BO143" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="BP143" t="s">
         <v>32</v>
@@ -17179,7 +17185,7 @@
         <v>32</v>
       </c>
       <c r="BO144" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="BP144" t="s">
         <v>32</v>
@@ -17205,7 +17211,7 @@
         <v>32</v>
       </c>
       <c r="BO145" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="BP145" t="s">
         <v>32</v>
@@ -17231,7 +17237,7 @@
         <v>32</v>
       </c>
       <c r="BO146" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="BP146" t="s">
         <v>32</v>
@@ -17257,7 +17263,7 @@
         <v>32</v>
       </c>
       <c r="BO147" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="BP147" t="s">
         <v>32</v>
@@ -17283,7 +17289,7 @@
         <v>32</v>
       </c>
       <c r="BO148" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="BP148" t="s">
         <v>32</v>
@@ -17309,7 +17315,7 @@
         <v>32</v>
       </c>
       <c r="BO149" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="BP149" t="s">
         <v>32</v>
@@ -17335,7 +17341,7 @@
         <v>32</v>
       </c>
       <c r="BO150" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="BP150" t="s">
         <v>32</v>
@@ -17361,7 +17367,7 @@
         <v>32</v>
       </c>
       <c r="BO151" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="BP151" t="s">
         <v>32</v>
@@ -17387,7 +17393,7 @@
         <v>32</v>
       </c>
       <c r="BO152" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="BP152" t="s">
         <v>32</v>
@@ -17413,7 +17419,7 @@
         <v>32</v>
       </c>
       <c r="BO153" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="BP153" t="s">
         <v>32</v>
@@ -17439,7 +17445,7 @@
         <v>32</v>
       </c>
       <c r="BO154" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="BP154" t="s">
         <v>32</v>
@@ -17465,7 +17471,7 @@
         <v>32</v>
       </c>
       <c r="BO155" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="BP155" t="s">
         <v>32</v>
@@ -17491,7 +17497,7 @@
         <v>32</v>
       </c>
       <c r="BO156" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="BP156" t="s">
         <v>32</v>
@@ -17517,7 +17523,7 @@
         <v>32</v>
       </c>
       <c r="BO157" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="BP157" t="s">
         <v>32</v>
@@ -17543,7 +17549,7 @@
         <v>32</v>
       </c>
       <c r="BO158" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="BP158" t="s">
         <v>32</v>
@@ -17569,7 +17575,7 @@
         <v>32</v>
       </c>
       <c r="BO159" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="BP159" t="s">
         <v>32</v>
@@ -17595,7 +17601,7 @@
         <v>32</v>
       </c>
       <c r="BO160" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="BP160" t="s">
         <v>32</v>
@@ -17621,7 +17627,7 @@
         <v>32</v>
       </c>
       <c r="BO161" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="BP161" t="s">
         <v>32</v>
@@ -17647,7 +17653,7 @@
         <v>32</v>
       </c>
       <c r="BO162" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="BP162" t="s">
         <v>32</v>
@@ -17673,7 +17679,7 @@
         <v>32</v>
       </c>
       <c r="BO163" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="BP163" t="s">
         <v>32</v>
@@ -17699,7 +17705,7 @@
         <v>32</v>
       </c>
       <c r="BO164" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="BP164" t="s">
         <v>32</v>
@@ -17725,7 +17731,7 @@
         <v>32</v>
       </c>
       <c r="BO165" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="BP165" t="s">
         <v>32</v>
@@ -17751,7 +17757,7 @@
         <v>32</v>
       </c>
       <c r="BO166" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="BP166" t="s">
         <v>32</v>
@@ -17777,7 +17783,7 @@
         <v>32</v>
       </c>
       <c r="BO167" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="BP167" t="s">
         <v>32</v>
@@ -17803,7 +17809,7 @@
         <v>32</v>
       </c>
       <c r="BO168" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="BP168" t="s">
         <v>32</v>
@@ -17829,7 +17835,7 @@
         <v>32</v>
       </c>
       <c r="BO169" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="BP169" t="s">
         <v>32</v>
@@ -17855,7 +17861,7 @@
         <v>32</v>
       </c>
       <c r="BO170" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="BP170" t="s">
         <v>32</v>
@@ -17881,7 +17887,7 @@
         <v>32</v>
       </c>
       <c r="BO171" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="BP171" t="s">
         <v>32</v>
@@ -17907,7 +17913,7 @@
         <v>32</v>
       </c>
       <c r="BO172" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="BP172" t="s">
         <v>32</v>
@@ -17933,7 +17939,7 @@
         <v>32</v>
       </c>
       <c r="BO173" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="BP173" t="s">
         <v>32</v>
@@ -17959,7 +17965,7 @@
         <v>32</v>
       </c>
       <c r="BO174" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="BP174" t="s">
         <v>32</v>
@@ -17985,7 +17991,7 @@
         <v>32</v>
       </c>
       <c r="BO175" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="BP175" t="s">
         <v>32</v>
@@ -18011,7 +18017,7 @@
         <v>32</v>
       </c>
       <c r="BO176" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="BP176" t="s">
         <v>32</v>
@@ -18037,7 +18043,7 @@
         <v>32</v>
       </c>
       <c r="BO177" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="BP177" t="s">
         <v>32</v>
@@ -18063,7 +18069,7 @@
         <v>32</v>
       </c>
       <c r="BO178" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="BP178" t="s">
         <v>32</v>
@@ -18089,7 +18095,7 @@
         <v>32</v>
       </c>
       <c r="BO179" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="BP179" t="s">
         <v>32</v>
@@ -18115,7 +18121,7 @@
         <v>32</v>
       </c>
       <c r="BO180" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="BP180" t="s">
         <v>32</v>
@@ -18141,7 +18147,7 @@
         <v>32</v>
       </c>
       <c r="BO181" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="BP181" t="s">
         <v>32</v>
@@ -34590,6 +34596,46 @@
         <v>1324</v>
       </c>
       <c r="BT1003" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1004" spans="25:72">
+      <c r="Y1004" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Z1004" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE1004" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BF1004" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS1004" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BT1004" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1005" spans="25:72">
+      <c r="Y1005" t="s">
+        <v>1326</v>
+      </c>
+      <c r="Z1005" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE1005" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BF1005" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS1005" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BT1005" t="s">
         <v>32</v>
       </c>
     </row>
@@ -35277,7 +35323,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35507,67 +35553,66 @@
       </c>
     </row>
     <row r="7" spans="1:20" hidden="1"/>
-    <row r="8" spans="1:20" hidden="1"/>
-    <row r="9" spans="1:20">
-      <c r="A9" s="6" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>1396</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>1398</v>
       </c>
     </row>
   </sheetData>
@@ -35581,44 +35626,44 @@
     <mergeCell ref="R2:T2"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001">
       <formula1>'Codelijsten'!$W$4:$W$10</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H1000001">
-      <formula1>'Codelijsten'!$Y$4:$Y$1003</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H1000001">
+      <formula1>'Codelijsten'!$Y$4:$Y$1005</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J1000001">
       <formula1>'Codelijsten'!$AA$4:$AA$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L1000001">
       <formula1>'Codelijsten'!$AC$4:$AC$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:M1000001">
       <formula1>'Codelijsten'!$AE$4:$AE$68</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:Q1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R1000001">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R1000001">
       <formula1>-146096</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10:T1000001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9:T1000001">
       <formula1>'Codelijsten'!$AG$4:$AG$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C9" location="'Codelijsten'!$W$2" display="filtertype"/>
-    <hyperlink ref="H9" location="'Codelijsten'!$Y$2" display="parameter"/>
-    <hyperlink ref="J9" location="'Codelijsten'!$AA$2" display="watermonster-observatie-choice_2-veld_labo"/>
-    <hyperlink ref="L9" location="'Codelijsten'!$AC$2" display="detectieconditie"/>
-    <hyperlink ref="M9" location="'Codelijsten'!$AE$2" display="eenheid"/>
-    <hyperlink ref="T9" location="'Codelijsten'!$AG$2" display="type referentiepunt"/>
+    <hyperlink ref="C8" location="'Codelijsten'!$W$2" display="filtertype"/>
+    <hyperlink ref="H8" location="'Codelijsten'!$Y$2" display="parameter"/>
+    <hyperlink ref="J8" location="'Codelijsten'!$AA$2" display="watermonster-observatie-choice_2-veld_labo"/>
+    <hyperlink ref="L8" location="'Codelijsten'!$AC$2" display="detectieconditie"/>
+    <hyperlink ref="M8" location="'Codelijsten'!$AE$2" display="eenheid"/>
+    <hyperlink ref="T8" location="'Codelijsten'!$AG$2" display="type referentiepunt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35658,61 +35703,61 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:20" hidden="1">
@@ -35720,36 +35765,36 @@
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -35757,7 +35802,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -35772,36 +35817,36 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>289</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="7" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="4" spans="1:20" hidden="1">
@@ -35809,13 +35854,13 @@
         <v>291</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -35823,61 +35868,61 @@
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -35992,202 +36037,202 @@
   <sheetData>
     <row r="1" spans="1:60" hidden="1">
       <c r="A1" s="6" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="2" spans="1:60" hidden="1">
       <c r="A2" s="7" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -36199,22 +36244,22 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -36227,13 +36272,13 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
@@ -36241,7 +36286,7 @@
         <v>29</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
@@ -36250,7 +36295,7 @@
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
@@ -36261,18 +36306,18 @@
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="3" spans="1:60" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>289</v>
@@ -36282,13 +36327,13 @@
         <v>11</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -36309,7 +36354,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="Y3" s="1" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -36319,12 +36364,12 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="7" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>289</v>
@@ -36334,19 +36379,19 @@
         <v>11</v>
       </c>
       <c r="AN3" s="7" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
@@ -36356,23 +36401,23 @@
         <v>291</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="AZ3" s="7" t="s">
         <v>289</v>
       </c>
       <c r="BA3" s="7"/>
       <c r="BB3" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>1653</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>1651</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>301</v>
@@ -36381,10 +36426,10 @@
     </row>
     <row r="4" spans="1:60" hidden="1">
       <c r="E4" s="7" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -36394,7 +36439,7 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -36404,10 +36449,10 @@
         <v>291</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>11</v>
@@ -36417,7 +36462,7 @@
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -36429,272 +36474,272 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AK4" s="7" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AS4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AZ4" s="1" t="s">
         <v>291</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="BF4" s="7" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="BG4" s="7" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="5" spans="1:60" hidden="1">
       <c r="K5" s="7" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>291</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="6" spans="1:60">
       <c r="A6" s="6" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
   </sheetData>
@@ -36863,79 +36908,79 @@
         <v>296</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>303</v>
@@ -36947,136 +36992,136 @@
         <v>305</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="BV1" s="1" t="s">
         <v>29</v>
@@ -37106,20 +37151,20 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>303</v>
@@ -37131,19 +37176,19 @@
         <v>305</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -37158,24 +37203,24 @@
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
@@ -37184,7 +37229,7 @@
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
@@ -37203,10 +37248,10 @@
         <v>298</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -37220,18 +37265,18 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>289</v>
@@ -37241,14 +37286,14 @@
         <v>11</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -37258,16 +37303,16 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="AY3" s="7" t="s">
         <v>296</v>
@@ -37280,19 +37325,19 @@
         <v>307</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>291</v>
       </c>
       <c r="BF3" s="7" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
@@ -37302,23 +37347,23 @@
         <v>291</v>
       </c>
       <c r="BM3" s="7" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="BN3" s="7" t="s">
         <v>289</v>
       </c>
       <c r="BO3" s="7"/>
       <c r="BP3" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>1653</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>1651</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>301</v>
@@ -37327,13 +37372,13 @@
     </row>
     <row r="4" spans="1:74" hidden="1">
       <c r="D4" s="7" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -37343,36 +37388,36 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="1" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="V4" s="7" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="AM4" s="7" t="s">
         <v>11</v>
@@ -37382,7 +37427,7 @@
       </c>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
@@ -37392,34 +37437,34 @@
         <v>298</v>
       </c>
       <c r="BA4" s="7" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="BG4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="BN4" s="1" t="s">
         <v>291</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="BT4" s="7" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="BU4" s="7" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="5" spans="1:74" hidden="1">
@@ -37432,66 +37477,66 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="1" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="P5" s="7" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="AP5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="6" spans="1:74" hidden="1">
       <c r="F6" s="7" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="7" spans="1:74">
@@ -37499,79 +37544,79 @@
         <v>296</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>303</v>
@@ -37583,136 +37628,136 @@
         <v>305</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="BV7" s="1" t="s">
         <v>29</v>
@@ -37748,7 +37793,7 @@
   </mergeCells>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A1000001">
-      <formula1>'Codelijsten'!$BE$4:$BE$1003</formula1>
+      <formula1>'Codelijsten'!$BE$4:$BE$1005</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1000001">
       <formula1>'Codelijsten'!$BG$4:$BG$68</formula1>
@@ -37775,7 +37820,7 @@
       <formula1>'Codelijsten'!$BQ$4:$BQ$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY8:AY1000001">
-      <formula1>'Codelijsten'!$BS$4:$BS$1003</formula1>
+      <formula1>'Codelijsten'!$BS$4:$BS$1005</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB8:BB1000001">
       <formula1>'Codelijsten'!$BU$4:$BU$68</formula1>
@@ -37819,50 +37864,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B1" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="B2" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="B3" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="B4" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="B5" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="B6" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
     </row>
   </sheetData>

--- a/templates/productie/productie_grondwater_template.xlsx
+++ b/templates/productie/productie_grondwater_template.xlsx
@@ -6197,7 +6197,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-12-18 01:28:21.693099</t>
+    <t>2026-01-01 02:16:21.442953</t>
   </si>
   <si>
     <t>version</t>
